--- a/data/134/DEUSTATIS/old/National accounts - Exports and imports quarters.xlsx
+++ b/data/134/DEUSTATIS/old/National accounts - Exports and imports quarters.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3717" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3659" uniqueCount="63">
   <si>
     <t>National accounts - Exports, imports (nominal/price-
 adjusted): Germany, quarters, original and adjusted data</t>
@@ -201,7 +201,7 @@
     <t xml:space="preserve">  index".</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-10-07 / 09:48:30</t>
+    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 09:51:40</t>
   </si>
 </sst>
 </file>
@@ -3832,13 +3832,13 @@
         <v>391.671</v>
       </c>
       <c r="DS8" t="n" s="10">
-        <v>397.183</v>
+        <v>396.833</v>
       </c>
       <c r="DT8" t="n" s="10">
-        <v>409.11</v>
-      </c>
-      <c r="DU8" t="s" s="10">
-        <v>44</v>
+        <v>408.966</v>
+      </c>
+      <c r="DU8" t="n" s="10">
+        <v>412.696</v>
       </c>
       <c r="DV8" t="s" s="10">
         <v>44</v>
@@ -4212,13 +4212,13 @@
         <v>319.179</v>
       </c>
       <c r="DS9" t="n" s="10">
-        <v>331.209</v>
+        <v>330.859</v>
       </c>
       <c r="DT9" t="n" s="10">
-        <v>337.839</v>
-      </c>
-      <c r="DU9" t="s" s="10">
-        <v>44</v>
+        <v>337.088</v>
+      </c>
+      <c r="DU9" t="n" s="10">
+        <v>333.938</v>
       </c>
       <c r="DV9" t="s" s="10">
         <v>44</v>
@@ -4595,10 +4595,10 @@
         <v>65.974</v>
       </c>
       <c r="DT10" t="n" s="10">
-        <v>71.271</v>
-      </c>
-      <c r="DU10" t="s" s="10">
-        <v>44</v>
+        <v>71.878</v>
+      </c>
+      <c r="DU10" t="n" s="10">
+        <v>78.758</v>
       </c>
       <c r="DV10" t="s" s="10">
         <v>44</v>
@@ -4972,13 +4972,13 @@
         <v>331.784</v>
       </c>
       <c r="DS11" t="n" s="10">
-        <v>337.849</v>
+        <v>337.355</v>
       </c>
       <c r="DT11" t="n" s="10">
-        <v>358.367</v>
-      </c>
-      <c r="DU11" t="s" s="10">
-        <v>44</v>
+        <v>359.109</v>
+      </c>
+      <c r="DU11" t="n" s="10">
+        <v>375.934</v>
       </c>
       <c r="DV11" t="s" s="10">
         <v>44</v>
@@ -5352,13 +5352,13 @@
         <v>265.405</v>
       </c>
       <c r="DS12" t="n" s="10">
-        <v>275.386</v>
+        <v>274.83</v>
       </c>
       <c r="DT12" t="n" s="10">
-        <v>292.226</v>
-      </c>
-      <c r="DU12" t="s" s="10">
-        <v>44</v>
+        <v>292.288</v>
+      </c>
+      <c r="DU12" t="n" s="10">
+        <v>288.699</v>
       </c>
       <c r="DV12" t="s" s="10">
         <v>44</v>
@@ -5732,13 +5732,13 @@
         <v>66.379</v>
       </c>
       <c r="DS13" t="n" s="10">
-        <v>62.463</v>
+        <v>62.525</v>
       </c>
       <c r="DT13" t="n" s="10">
-        <v>66.141</v>
-      </c>
-      <c r="DU13" t="s" s="10">
-        <v>44</v>
+        <v>66.821</v>
+      </c>
+      <c r="DU13" t="n" s="10">
+        <v>87.235</v>
       </c>
       <c r="DV13" t="s" s="10">
         <v>44</v>
@@ -6112,13 +6112,13 @@
         <v>59.887</v>
       </c>
       <c r="DS14" t="n" s="10">
-        <v>59.334</v>
+        <v>59.478</v>
       </c>
       <c r="DT14" t="n" s="10">
-        <v>50.743</v>
-      </c>
-      <c r="DU14" t="s" s="10">
-        <v>44</v>
+        <v>49.857</v>
+      </c>
+      <c r="DU14" t="n" s="10">
+        <v>36.762</v>
       </c>
       <c r="DV14" t="s" s="10">
         <v>44</v>
@@ -6497,13 +6497,13 @@
         <v>107.91</v>
       </c>
       <c r="DS16" t="n" s="10">
-        <v>108.02</v>
+        <v>107.93</v>
       </c>
       <c r="DT16" t="n" s="10">
-        <v>108.65</v>
-      </c>
-      <c r="DU16" t="s" s="10">
-        <v>44</v>
+        <v>108.61</v>
+      </c>
+      <c r="DU16" t="n" s="10">
+        <v>106.47</v>
       </c>
       <c r="DV16" t="s" s="10">
         <v>44</v>
@@ -6877,13 +6877,13 @@
         <v>108.51</v>
       </c>
       <c r="DS17" t="n" s="10">
-        <v>111.5</v>
+        <v>111.39</v>
       </c>
       <c r="DT17" t="n" s="10">
-        <v>111.46</v>
-      </c>
-      <c r="DU17" t="s" s="10">
-        <v>44</v>
+        <v>111.22</v>
+      </c>
+      <c r="DU17" t="n" s="10">
+        <v>107.33</v>
       </c>
       <c r="DV17" t="s" s="10">
         <v>44</v>
@@ -7257,13 +7257,13 @@
         <v>105.38</v>
       </c>
       <c r="DS18" t="n" s="10">
-        <v>93.02</v>
+        <v>93.01</v>
       </c>
       <c r="DT18" t="n" s="10">
-        <v>96.59</v>
-      </c>
-      <c r="DU18" t="s" s="10">
-        <v>44</v>
+        <v>97.38</v>
+      </c>
+      <c r="DU18" t="n" s="10">
+        <v>102.79</v>
       </c>
       <c r="DV18" t="s" s="10">
         <v>44</v>
@@ -7637,13 +7637,13 @@
         <v>112.01</v>
       </c>
       <c r="DS19" t="n" s="10">
-        <v>112.05</v>
+        <v>111.89</v>
       </c>
       <c r="DT19" t="n" s="10">
-        <v>114.79</v>
-      </c>
-      <c r="DU19" t="s" s="10">
-        <v>44</v>
+        <v>114.83</v>
+      </c>
+      <c r="DU19" t="n" s="10">
+        <v>116.39</v>
       </c>
       <c r="DV19" t="s" s="10">
         <v>44</v>
@@ -8017,13 +8017,13 @@
         <v>118.44</v>
       </c>
       <c r="DS20" t="n" s="10">
-        <v>120.42</v>
+        <v>120.22</v>
       </c>
       <c r="DT20" t="n" s="10">
-        <v>122.94</v>
-      </c>
-      <c r="DU20" t="s" s="10">
-        <v>44</v>
+        <v>122.76</v>
+      </c>
+      <c r="DU20" t="n" s="10">
+        <v>116.31</v>
       </c>
       <c r="DV20" t="s" s="10">
         <v>44</v>
@@ -8400,10 +8400,10 @@
         <v>85.34</v>
       </c>
       <c r="DT21" t="n" s="10">
-        <v>88.77</v>
-      </c>
-      <c r="DU21" t="s" s="10">
-        <v>44</v>
+        <v>89.5</v>
+      </c>
+      <c r="DU21" t="n" s="10">
+        <v>115.84</v>
       </c>
       <c r="DV21" t="s" s="10">
         <v>44</v>
@@ -8783,7 +8783,7 @@
         <v>52</v>
       </c>
       <c r="DU22" t="s" s="10">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="DV22" t="s" s="10">
         <v>44</v>
@@ -9162,13 +9162,13 @@
         <v>383.055</v>
       </c>
       <c r="DS24" t="n" s="10">
-        <v>383.446</v>
+        <v>383.126</v>
       </c>
       <c r="DT24" t="n" s="10">
-        <v>385.682</v>
-      </c>
-      <c r="DU24" t="s" s="10">
-        <v>44</v>
+        <v>385.54</v>
+      </c>
+      <c r="DU24" t="n" s="10">
+        <v>377.943</v>
       </c>
       <c r="DV24" t="s" s="10">
         <v>44</v>
@@ -9542,13 +9542,13 @@
         <v>316.468</v>
       </c>
       <c r="DS25" t="n" s="10">
-        <v>325.188</v>
+        <v>324.867</v>
       </c>
       <c r="DT25" t="n" s="10">
-        <v>325.071</v>
-      </c>
-      <c r="DU25" t="s" s="10">
-        <v>44</v>
+        <v>324.371</v>
+      </c>
+      <c r="DU25" t="n" s="10">
+        <v>313.026</v>
       </c>
       <c r="DV25" t="s" s="10">
         <v>44</v>
@@ -9922,13 +9922,13 @@
         <v>66.735</v>
       </c>
       <c r="DS26" t="n" s="10">
-        <v>58.908</v>
+        <v>58.902</v>
       </c>
       <c r="DT26" t="n" s="10">
-        <v>61.169</v>
-      </c>
-      <c r="DU26" t="s" s="10">
-        <v>44</v>
+        <v>61.669</v>
+      </c>
+      <c r="DU26" t="n" s="10">
+        <v>65.095</v>
       </c>
       <c r="DV26" t="s" s="10">
         <v>44</v>
@@ -10302,13 +10302,13 @@
         <v>333.247</v>
       </c>
       <c r="DS27" t="n" s="10">
-        <v>333.366</v>
+        <v>332.89</v>
       </c>
       <c r="DT27" t="n" s="10">
-        <v>341.517</v>
-      </c>
-      <c r="DU27" t="s" s="10">
-        <v>44</v>
+        <v>341.636</v>
+      </c>
+      <c r="DU27" t="n" s="10">
+        <v>346.278</v>
       </c>
       <c r="DV27" t="s" s="10">
         <v>44</v>
@@ -10682,13 +10682,13 @@
         <v>271.881</v>
       </c>
       <c r="DS28" t="n" s="10">
-        <v>276.426</v>
+        <v>275.967</v>
       </c>
       <c r="DT28" t="n" s="10">
-        <v>282.211</v>
-      </c>
-      <c r="DU28" t="s" s="10">
-        <v>44</v>
+        <v>281.798</v>
+      </c>
+      <c r="DU28" t="n" s="10">
+        <v>266.992</v>
       </c>
       <c r="DV28" t="s" s="10">
         <v>44</v>
@@ -11065,10 +11065,10 @@
         <v>58.0</v>
       </c>
       <c r="DT29" t="n" s="10">
-        <v>60.331</v>
-      </c>
-      <c r="DU29" t="s" s="10">
-        <v>44</v>
+        <v>60.827</v>
+      </c>
+      <c r="DU29" t="n" s="10">
+        <v>78.729</v>
       </c>
       <c r="DV29" t="s" s="10">
         <v>44</v>
@@ -11448,7 +11448,7 @@
         <v>52</v>
       </c>
       <c r="DU30" t="s" s="10">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="DV30" t="s" s="10">
         <v>44</v>
@@ -11827,13 +11827,13 @@
         <v>392.975</v>
       </c>
       <c r="DS32" t="n" s="10">
-        <v>391.665</v>
+        <v>391.342</v>
       </c>
       <c r="DT32" t="n" s="10">
-        <v>393.975</v>
-      </c>
-      <c r="DU32" t="s" s="10">
-        <v>44</v>
+        <v>393.815</v>
+      </c>
+      <c r="DU32" t="n" s="10">
+        <v>386.045</v>
       </c>
       <c r="DV32" t="s" s="10">
         <v>44</v>
@@ -12207,13 +12207,13 @@
         <v>321.766</v>
       </c>
       <c r="DS33" t="n" s="10">
-        <v>328.354</v>
+        <v>328.035</v>
       </c>
       <c r="DT33" t="n" s="10">
-        <v>328.228</v>
-      </c>
-      <c r="DU33" t="s" s="10">
-        <v>44</v>
+        <v>327.531</v>
+      </c>
+      <c r="DU33" t="n" s="10">
+        <v>316.078</v>
       </c>
       <c r="DV33" t="s" s="10">
         <v>44</v>
@@ -12587,13 +12587,13 @@
         <v>71.209</v>
       </c>
       <c r="DS34" t="n" s="10">
-        <v>63.311</v>
+        <v>63.307</v>
       </c>
       <c r="DT34" t="n" s="10">
-        <v>65.747</v>
-      </c>
-      <c r="DU34" t="s" s="10">
-        <v>44</v>
+        <v>66.284</v>
+      </c>
+      <c r="DU34" t="n" s="10">
+        <v>69.967</v>
       </c>
       <c r="DV34" t="s" s="10">
         <v>44</v>
@@ -12967,13 +12967,13 @@
         <v>339.204</v>
       </c>
       <c r="DS35" t="n" s="10">
-        <v>331.019</v>
+        <v>330.565</v>
       </c>
       <c r="DT35" t="n" s="10">
-        <v>339.138</v>
-      </c>
-      <c r="DU35" t="s" s="10">
-        <v>44</v>
+        <v>339.252</v>
+      </c>
+      <c r="DU35" t="n" s="10">
+        <v>343.85</v>
       </c>
       <c r="DV35" t="s" s="10">
         <v>44</v>
@@ -13347,13 +13347,13 @@
         <v>274.506</v>
       </c>
       <c r="DS36" t="n" s="10">
-        <v>269.402</v>
+        <v>268.948</v>
       </c>
       <c r="DT36" t="n" s="10">
-        <v>275.041</v>
-      </c>
-      <c r="DU36" t="s" s="10">
-        <v>44</v>
+        <v>274.626</v>
+      </c>
+      <c r="DU36" t="n" s="10">
+        <v>260.209</v>
       </c>
       <c r="DV36" t="s" s="10">
         <v>44</v>
@@ -13730,10 +13730,10 @@
         <v>61.617</v>
       </c>
       <c r="DT37" t="n" s="10">
-        <v>64.097</v>
-      </c>
-      <c r="DU37" t="s" s="10">
-        <v>44</v>
+        <v>64.626</v>
+      </c>
+      <c r="DU37" t="n" s="10">
+        <v>83.641</v>
       </c>
       <c r="DV37" t="s" s="10">
         <v>44</v>
@@ -14107,13 +14107,13 @@
         <v>53.771</v>
       </c>
       <c r="DS38" t="n" s="10">
-        <v>60.646</v>
+        <v>60.777</v>
       </c>
       <c r="DT38" t="n" s="10">
-        <v>54.837</v>
-      </c>
-      <c r="DU38" t="s" s="10">
-        <v>44</v>
+        <v>54.563</v>
+      </c>
+      <c r="DU38" t="n" s="10">
+        <v>42.195</v>
       </c>
       <c r="DV38" t="s" s="10">
         <v>44</v>
@@ -14497,13 +14497,13 @@
         <v>384.375</v>
       </c>
       <c r="DS41" t="n" s="10">
-        <v>395.858</v>
+        <v>395.51</v>
       </c>
       <c r="DT41" t="n" s="10">
-        <v>406.649</v>
-      </c>
-      <c r="DU41" t="s" s="10">
-        <v>44</v>
+        <v>406.516</v>
+      </c>
+      <c r="DU41" t="n" s="10">
+        <v>413.793</v>
       </c>
       <c r="DV41" t="s" s="10">
         <v>44</v>
@@ -14877,13 +14877,13 @@
         <v>318.442</v>
       </c>
       <c r="DS42" t="n" s="10">
-        <v>326.028</v>
+        <v>325.679</v>
       </c>
       <c r="DT42" t="n" s="10">
-        <v>334.054</v>
-      </c>
-      <c r="DU42" t="s" s="10">
-        <v>44</v>
+        <v>333.304</v>
+      </c>
+      <c r="DU42" t="n" s="10">
+        <v>334.778</v>
       </c>
       <c r="DV42" t="s" s="10">
         <v>44</v>
@@ -15257,13 +15257,13 @@
         <v>65.933</v>
       </c>
       <c r="DS43" t="n" s="10">
-        <v>69.83</v>
+        <v>69.831</v>
       </c>
       <c r="DT43" t="n" s="10">
-        <v>72.595</v>
-      </c>
-      <c r="DU43" t="s" s="10">
-        <v>44</v>
+        <v>73.212</v>
+      </c>
+      <c r="DU43" t="n" s="10">
+        <v>79.015</v>
       </c>
       <c r="DV43" t="s" s="10">
         <v>44</v>
@@ -15637,13 +15637,13 @@
         <v>322.682</v>
       </c>
       <c r="DS44" t="n" s="10">
-        <v>342.747</v>
+        <v>342.265</v>
       </c>
       <c r="DT44" t="n" s="10">
-        <v>360.358</v>
-      </c>
-      <c r="DU44" t="s" s="10">
-        <v>44</v>
+        <v>361.096</v>
+      </c>
+      <c r="DU44" t="n" s="10">
+        <v>370.847</v>
       </c>
       <c r="DV44" t="s" s="10">
         <v>44</v>
@@ -16017,13 +16017,13 @@
         <v>260.316</v>
       </c>
       <c r="DS45" t="n" s="10">
-        <v>273.957</v>
+        <v>273.401</v>
       </c>
       <c r="DT45" t="n" s="10">
-        <v>291.959</v>
-      </c>
-      <c r="DU45" t="s" s="10">
-        <v>44</v>
+        <v>291.999</v>
+      </c>
+      <c r="DU45" t="n" s="10">
+        <v>291.478</v>
       </c>
       <c r="DV45" t="s" s="10">
         <v>44</v>
@@ -16397,13 +16397,13 @@
         <v>62.366</v>
       </c>
       <c r="DS46" t="n" s="10">
-        <v>68.79</v>
+        <v>68.864</v>
       </c>
       <c r="DT46" t="n" s="10">
-        <v>68.399</v>
-      </c>
-      <c r="DU46" t="s" s="10">
-        <v>44</v>
+        <v>69.097</v>
+      </c>
+      <c r="DU46" t="n" s="10">
+        <v>79.369</v>
       </c>
       <c r="DV46" t="s" s="10">
         <v>44</v>
@@ -16777,13 +16777,13 @@
         <v>61.693</v>
       </c>
       <c r="DS47" t="n" s="10">
-        <v>53.111</v>
+        <v>53.245</v>
       </c>
       <c r="DT47" t="n" s="10">
-        <v>46.291</v>
-      </c>
-      <c r="DU47" t="s" s="10">
-        <v>44</v>
+        <v>45.42</v>
+      </c>
+      <c r="DU47" t="n" s="10">
+        <v>42.946</v>
       </c>
       <c r="DV47" t="s" s="10">
         <v>44</v>
@@ -17162,13 +17162,13 @@
         <v>105.93</v>
       </c>
       <c r="DS49" t="n" s="10">
-        <v>107.45</v>
+        <v>107.36</v>
       </c>
       <c r="DT49" t="n" s="10">
-        <v>108.03</v>
-      </c>
-      <c r="DU49" t="s" s="10">
-        <v>44</v>
+        <v>107.99</v>
+      </c>
+      <c r="DU49" t="n" s="10">
+        <v>106.93</v>
       </c>
       <c r="DV49" t="s" s="10">
         <v>44</v>
@@ -17542,13 +17542,13 @@
         <v>108.14</v>
       </c>
       <c r="DS50" t="n" s="10">
-        <v>109.69</v>
+        <v>109.58</v>
       </c>
       <c r="DT50" t="n" s="10">
-        <v>110.38</v>
-      </c>
-      <c r="DU50" t="s" s="10">
-        <v>44</v>
+        <v>110.14</v>
+      </c>
+      <c r="DU50" t="n" s="10">
+        <v>107.67</v>
       </c>
       <c r="DV50" t="s" s="10">
         <v>44</v>
@@ -17922,13 +17922,13 @@
         <v>96.29</v>
       </c>
       <c r="DS51" t="n" s="10">
-        <v>97.84</v>
+        <v>97.83</v>
       </c>
       <c r="DT51" t="n" s="10">
-        <v>97.95</v>
-      </c>
-      <c r="DU51" t="s" s="10">
-        <v>44</v>
+        <v>98.75</v>
+      </c>
+      <c r="DU51" t="n" s="10">
+        <v>103.78</v>
       </c>
       <c r="DV51" t="s" s="10">
         <v>44</v>
@@ -18302,13 +18302,13 @@
         <v>108.74</v>
       </c>
       <c r="DS52" t="n" s="10">
-        <v>113.36</v>
+        <v>113.21</v>
       </c>
       <c r="DT52" t="n" s="10">
-        <v>115.7</v>
-      </c>
-      <c r="DU52" t="s" s="10">
-        <v>44</v>
+        <v>115.74</v>
+      </c>
+      <c r="DU52" t="n" s="10">
+        <v>115.09</v>
       </c>
       <c r="DV52" t="s" s="10">
         <v>44</v>
@@ -18682,13 +18682,13 @@
         <v>115.98</v>
       </c>
       <c r="DS53" t="n" s="10">
-        <v>119.64</v>
+        <v>119.44</v>
       </c>
       <c r="DT53" t="n" s="10">
-        <v>123.09</v>
-      </c>
-      <c r="DU53" t="s" s="10">
-        <v>44</v>
+        <v>122.9</v>
+      </c>
+      <c r="DU53" t="n" s="10">
+        <v>117.55</v>
       </c>
       <c r="DV53" t="s" s="10">
         <v>44</v>
@@ -19065,10 +19065,10 @@
         <v>93.15</v>
       </c>
       <c r="DT54" t="n" s="10">
-        <v>92.04</v>
-      </c>
-      <c r="DU54" t="s" s="10">
-        <v>44</v>
+        <v>92.79</v>
+      </c>
+      <c r="DU54" t="n" s="10">
+        <v>106.69</v>
       </c>
       <c r="DV54" t="s" s="10">
         <v>44</v>
@@ -19448,7 +19448,7 @@
         <v>52</v>
       </c>
       <c r="DU55" t="s" s="10">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="DV55" t="s" s="10">
         <v>44</v>
@@ -19827,13 +19827,13 @@
         <v>376.008</v>
       </c>
       <c r="DS57" t="n" s="10">
-        <v>381.403</v>
+        <v>381.084</v>
       </c>
       <c r="DT57" t="n" s="10">
-        <v>383.462</v>
-      </c>
-      <c r="DU57" t="s" s="10">
-        <v>44</v>
+        <v>383.32</v>
+      </c>
+      <c r="DU57" t="n" s="10">
+        <v>379.557</v>
       </c>
       <c r="DV57" t="s" s="10">
         <v>44</v>
@@ -20207,13 +20207,13 @@
         <v>315.381</v>
       </c>
       <c r="DS58" t="n" s="10">
-        <v>319.901</v>
+        <v>319.58</v>
       </c>
       <c r="DT58" t="n" s="10">
-        <v>321.913</v>
-      </c>
-      <c r="DU58" t="s" s="10">
-        <v>44</v>
+        <v>321.213</v>
+      </c>
+      <c r="DU58" t="n" s="10">
+        <v>314.01</v>
       </c>
       <c r="DV58" t="s" s="10">
         <v>44</v>
@@ -20587,13 +20587,13 @@
         <v>60.979</v>
       </c>
       <c r="DS59" t="n" s="10">
-        <v>61.96</v>
+        <v>61.954</v>
       </c>
       <c r="DT59" t="n" s="10">
-        <v>62.03</v>
-      </c>
-      <c r="DU59" t="s" s="10">
-        <v>44</v>
+        <v>62.537</v>
+      </c>
+      <c r="DU59" t="n" s="10">
+        <v>65.722</v>
       </c>
       <c r="DV59" t="s" s="10">
         <v>44</v>
@@ -20967,13 +20967,13 @@
         <v>323.518</v>
       </c>
       <c r="DS60" t="n" s="10">
-        <v>337.263</v>
+        <v>336.817</v>
       </c>
       <c r="DT60" t="n" s="10">
-        <v>344.225</v>
-      </c>
-      <c r="DU60" t="s" s="10">
-        <v>44</v>
+        <v>344.344</v>
+      </c>
+      <c r="DU60" t="n" s="10">
+        <v>342.41</v>
       </c>
       <c r="DV60" t="s" s="10">
         <v>44</v>
@@ -21347,13 +21347,13 @@
         <v>266.234</v>
       </c>
       <c r="DS61" t="n" s="10">
-        <v>274.636</v>
+        <v>274.177</v>
       </c>
       <c r="DT61" t="n" s="10">
-        <v>282.555</v>
-      </c>
-      <c r="DU61" t="s" s="10">
-        <v>44</v>
+        <v>282.119</v>
+      </c>
+      <c r="DU61" t="n" s="10">
+        <v>269.838</v>
       </c>
       <c r="DV61" t="s" s="10">
         <v>44</v>
@@ -21730,10 +21730,10 @@
         <v>63.306</v>
       </c>
       <c r="DT62" t="n" s="10">
-        <v>62.552</v>
-      </c>
-      <c r="DU62" t="s" s="10">
-        <v>44</v>
+        <v>63.061</v>
+      </c>
+      <c r="DU62" t="n" s="10">
+        <v>72.508</v>
       </c>
       <c r="DV62" t="s" s="10">
         <v>44</v>
@@ -22113,7 +22113,7 @@
         <v>52</v>
       </c>
       <c r="DU63" t="s" s="10">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="DV63" t="s" s="10">
         <v>44</v>
@@ -22498,7 +22498,7 @@
         <v>52</v>
       </c>
       <c r="DU65" t="s" s="10">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="DV65" t="s" s="10">
         <v>44</v>
@@ -22878,7 +22878,7 @@
         <v>52</v>
       </c>
       <c r="DU66" t="s" s="10">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="DV66" t="s" s="10">
         <v>44</v>
@@ -23258,7 +23258,7 @@
         <v>52</v>
       </c>
       <c r="DU67" t="s" s="10">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="DV67" t="s" s="10">
         <v>44</v>
@@ -23638,7 +23638,7 @@
         <v>52</v>
       </c>
       <c r="DU68" t="s" s="10">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="DV68" t="s" s="10">
         <v>44</v>
@@ -24018,7 +24018,7 @@
         <v>52</v>
       </c>
       <c r="DU69" t="s" s="10">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="DV69" t="s" s="10">
         <v>44</v>
@@ -24398,7 +24398,7 @@
         <v>52</v>
       </c>
       <c r="DU70" t="s" s="10">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="DV70" t="s" s="10">
         <v>44</v>
@@ -24778,7 +24778,7 @@
         <v>52</v>
       </c>
       <c r="DU71" t="s" s="10">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="DV71" t="s" s="10">
         <v>44</v>
@@ -24802,373 +24802,373 @@
         <v>43</v>
       </c>
       <c r="C74" t="n" s="10">
-        <v>95.791</v>
+        <v>95.667</v>
       </c>
       <c r="D74" t="n" s="10">
-        <v>93.034</v>
+        <v>93.048</v>
       </c>
       <c r="E74" t="n" s="10">
-        <v>94.496</v>
+        <v>94.486</v>
       </c>
       <c r="F74" t="n" s="10">
-        <v>97.249</v>
+        <v>97.158</v>
       </c>
       <c r="G74" t="n" s="10">
-        <v>95.763</v>
+        <v>95.793</v>
       </c>
       <c r="H74" t="n" s="10">
-        <v>95.76</v>
+        <v>95.707</v>
       </c>
       <c r="I74" t="n" s="10">
-        <v>94.492</v>
+        <v>94.495</v>
       </c>
       <c r="J74" t="n" s="10">
-        <v>91.425</v>
+        <v>91.455</v>
       </c>
       <c r="K74" t="n" s="10">
-        <v>89.802</v>
+        <v>89.768</v>
       </c>
       <c r="L74" t="n" s="10">
-        <v>87.36</v>
+        <v>87.392</v>
       </c>
       <c r="M74" t="n" s="10">
-        <v>87.64</v>
+        <v>87.663</v>
       </c>
       <c r="N74" t="n" s="10">
-        <v>88.359</v>
+        <v>88.452</v>
       </c>
       <c r="O74" t="n" s="10">
-        <v>92.113</v>
+        <v>92.137</v>
       </c>
       <c r="P74" t="n" s="10">
-        <v>95.982</v>
+        <v>96.019</v>
       </c>
       <c r="Q74" t="n" s="10">
-        <v>97.044</v>
+        <v>97.076</v>
       </c>
       <c r="R74" t="n" s="10">
-        <v>99.842</v>
+        <v>99.815</v>
       </c>
       <c r="S74" t="n" s="10">
-        <v>101.35</v>
+        <v>101.403</v>
       </c>
       <c r="T74" t="n" s="10">
-        <v>103.698</v>
+        <v>103.672</v>
       </c>
       <c r="U74" t="n" s="10">
-        <v>105.79</v>
+        <v>105.732</v>
       </c>
       <c r="V74" t="n" s="10">
-        <v>106.698</v>
+        <v>106.672</v>
       </c>
       <c r="W74" t="n" s="10">
-        <v>106.89</v>
+        <v>106.912</v>
       </c>
       <c r="X74" t="n" s="10">
-        <v>108.946</v>
+        <v>108.89</v>
       </c>
       <c r="Y74" t="n" s="10">
-        <v>110.186</v>
+        <v>110.178</v>
       </c>
       <c r="Z74" t="n" s="10">
-        <v>114.55</v>
+        <v>114.512</v>
       </c>
       <c r="AA74" t="n" s="10">
-        <v>119.416</v>
+        <v>119.282</v>
       </c>
       <c r="AB74" t="n" s="10">
-        <v>121.308</v>
+        <v>121.37</v>
       </c>
       <c r="AC74" t="n" s="10">
-        <v>128.176</v>
+        <v>128.164</v>
       </c>
       <c r="AD74" t="n" s="10">
-        <v>132.104</v>
+        <v>132.047</v>
       </c>
       <c r="AE74" t="n" s="10">
-        <v>133.74</v>
+        <v>133.759</v>
       </c>
       <c r="AF74" t="n" s="10">
-        <v>135.001</v>
+        <v>134.938</v>
       </c>
       <c r="AG74" t="n" s="10">
-        <v>132.13</v>
+        <v>132.149</v>
       </c>
       <c r="AH74" t="n" s="10">
-        <v>130.507</v>
+        <v>130.556</v>
       </c>
       <c r="AI74" t="n" s="10">
-        <v>131.336</v>
+        <v>131.317</v>
       </c>
       <c r="AJ74" t="n" s="10">
-        <v>134.93</v>
+        <v>134.989</v>
       </c>
       <c r="AK74" t="n" s="10">
-        <v>140.32</v>
+        <v>140.369</v>
       </c>
       <c r="AL74" t="n" s="10">
-        <v>143.033</v>
+        <v>143.154</v>
       </c>
       <c r="AM74" t="n" s="10">
-        <v>152.221</v>
+        <v>152.313</v>
       </c>
       <c r="AN74" t="n" s="10">
-        <v>159.443</v>
+        <v>159.431</v>
       </c>
       <c r="AO74" t="n" s="10">
-        <v>164.975</v>
+        <v>164.946</v>
       </c>
       <c r="AP74" t="n" s="10">
-        <v>174.357</v>
+        <v>174.284</v>
       </c>
       <c r="AQ74" t="n" s="10">
-        <v>173.769</v>
+        <v>173.78</v>
       </c>
       <c r="AR74" t="n" s="10">
-        <v>174.043</v>
+        <v>174.003</v>
       </c>
       <c r="AS74" t="n" s="10">
-        <v>174.247</v>
+        <v>174.189</v>
       </c>
       <c r="AT74" t="n" s="10">
-        <v>172.563</v>
+        <v>172.517</v>
       </c>
       <c r="AU74" t="n" s="10">
-        <v>175.905</v>
+        <v>175.804</v>
       </c>
       <c r="AV74" t="n" s="10">
-        <v>179.488</v>
+        <v>179.498</v>
       </c>
       <c r="AW74" t="n" s="10">
-        <v>181.387</v>
+        <v>181.38</v>
       </c>
       <c r="AX74" t="n" s="10">
-        <v>183.246</v>
+        <v>183.216</v>
       </c>
       <c r="AY74" t="n" s="10">
-        <v>180.568</v>
+        <v>180.544</v>
       </c>
       <c r="AZ74" t="n" s="10">
-        <v>178.435</v>
+        <v>178.378</v>
       </c>
       <c r="BA74" t="n" s="10">
-        <v>183.196</v>
+        <v>183.193</v>
       </c>
       <c r="BB74" t="n" s="10">
-        <v>188.031</v>
+        <v>187.976</v>
       </c>
       <c r="BC74" t="n" s="10">
-        <v>194.551</v>
+        <v>194.623</v>
       </c>
       <c r="BD74" t="n" s="10">
-        <v>202.412</v>
+        <v>202.416</v>
       </c>
       <c r="BE74" t="n" s="10">
-        <v>201.462</v>
+        <v>201.495</v>
       </c>
       <c r="BF74" t="n" s="10">
-        <v>202.924</v>
+        <v>203.066</v>
       </c>
       <c r="BG74" t="n" s="10">
-        <v>208.097</v>
+        <v>208.034</v>
       </c>
       <c r="BH74" t="n" s="10">
-        <v>211.435</v>
+        <v>211.572</v>
       </c>
       <c r="BI74" t="n" s="10">
-        <v>221.245</v>
+        <v>221.3</v>
       </c>
       <c r="BJ74" t="n" s="10">
-        <v>225.882</v>
+        <v>225.897</v>
       </c>
       <c r="BK74" t="n" s="10">
-        <v>234.196</v>
+        <v>234.296</v>
       </c>
       <c r="BL74" t="n" s="10">
-        <v>242.382</v>
+        <v>242.322</v>
       </c>
       <c r="BM74" t="n" s="10">
-        <v>249.604</v>
+        <v>249.571</v>
       </c>
       <c r="BN74" t="n" s="10">
-        <v>263.279</v>
+        <v>263.242</v>
       </c>
       <c r="BO74" t="n" s="10">
-        <v>264.969</v>
+        <v>264.985</v>
       </c>
       <c r="BP74" t="n" s="10">
-        <v>269.414</v>
+        <v>269.348</v>
       </c>
       <c r="BQ74" t="n" s="10">
-        <v>274.7</v>
+        <v>274.642</v>
       </c>
       <c r="BR74" t="n" s="10">
-        <v>277.671</v>
+        <v>277.622</v>
       </c>
       <c r="BS74" t="n" s="10">
-        <v>285.267</v>
+        <v>285.203</v>
       </c>
       <c r="BT74" t="n" s="10">
-        <v>282.855</v>
+        <v>282.995</v>
       </c>
       <c r="BU74" t="n" s="10">
-        <v>279.477</v>
+        <v>279.48</v>
       </c>
       <c r="BV74" t="n" s="10">
-        <v>266.043</v>
+        <v>265.962</v>
       </c>
       <c r="BW74" t="n" s="10">
-        <v>233.696</v>
+        <v>233.727</v>
       </c>
       <c r="BX74" t="n" s="10">
-        <v>224.539</v>
+        <v>224.48</v>
       </c>
       <c r="BY74" t="n" s="10">
-        <v>231.274</v>
+        <v>231.289</v>
       </c>
       <c r="BZ74" t="n" s="10">
-        <v>242.358</v>
+        <v>242.389</v>
       </c>
       <c r="CA74" t="n" s="10">
-        <v>253.063</v>
+        <v>253.075</v>
       </c>
       <c r="CB74" t="n" s="10">
-        <v>269.98</v>
+        <v>270.028</v>
       </c>
       <c r="CC74" t="n" s="10">
-        <v>278.297</v>
+        <v>278.336</v>
       </c>
       <c r="CD74" t="n" s="10">
-        <v>287.588</v>
+        <v>287.699</v>
       </c>
       <c r="CE74" t="n" s="10">
-        <v>297.372</v>
+        <v>297.42</v>
       </c>
       <c r="CF74" t="n" s="10">
-        <v>299.943</v>
+        <v>299.995</v>
       </c>
       <c r="CG74" t="n" s="10">
-        <v>304.4</v>
+        <v>304.442</v>
       </c>
       <c r="CH74" t="n" s="10">
         <v>309.278</v>
       </c>
       <c r="CI74" t="n" s="10">
-        <v>315.005</v>
+        <v>315.103</v>
       </c>
       <c r="CJ74" t="n" s="10">
-        <v>318.014</v>
+        <v>317.976</v>
       </c>
       <c r="CK74" t="n" s="10">
-        <v>320.495</v>
+        <v>320.437</v>
       </c>
       <c r="CL74" t="n" s="10">
-        <v>317.722</v>
+        <v>317.672</v>
       </c>
       <c r="CM74" t="n" s="10">
-        <v>316.498</v>
+        <v>316.391</v>
       </c>
       <c r="CN74" t="n" s="10">
-        <v>318.204</v>
+        <v>318.219</v>
       </c>
       <c r="CO74" t="n" s="10">
-        <v>319.961</v>
+        <v>319.951</v>
       </c>
       <c r="CP74" t="n" s="10">
-        <v>324.749</v>
+        <v>324.737</v>
       </c>
       <c r="CQ74" t="n" s="10">
-        <v>327.955</v>
+        <v>327.938</v>
       </c>
       <c r="CR74" t="n" s="10">
-        <v>330.084</v>
+        <v>329.983</v>
       </c>
       <c r="CS74" t="n" s="10">
-        <v>336.849</v>
+        <v>336.728</v>
       </c>
       <c r="CT74" t="n" s="10">
-        <v>343.956</v>
+        <v>344.206</v>
       </c>
       <c r="CU74" t="n" s="10">
-        <v>350.078</v>
+        <v>349.983</v>
       </c>
       <c r="CV74" t="n" s="10">
-        <v>355.41</v>
+        <v>355.195</v>
       </c>
       <c r="CW74" t="n" s="10">
-        <v>357.716</v>
+        <v>357.52</v>
       </c>
       <c r="CX74" t="n" s="10">
-        <v>356.57</v>
+        <v>357.204</v>
       </c>
       <c r="CY74" t="n" s="10">
-        <v>354.382</v>
+        <v>354.118</v>
       </c>
       <c r="CZ74" t="n" s="10">
-        <v>358.853</v>
+        <v>358.84</v>
       </c>
       <c r="DA74" t="n" s="10">
-        <v>361.247</v>
+        <v>361.186</v>
       </c>
       <c r="DB74" t="n" s="10">
-        <v>367.769</v>
+        <v>368.152</v>
       </c>
       <c r="DC74" t="n" s="10">
-        <v>378.363</v>
+        <v>378.296</v>
       </c>
       <c r="DD74" t="n" s="10">
-        <v>382.33</v>
+        <v>382.124</v>
       </c>
       <c r="DE74" t="n" s="10">
-        <v>388.755</v>
+        <v>388.738</v>
       </c>
       <c r="DF74" t="n" s="10">
-        <v>394.784</v>
+        <v>395.443</v>
       </c>
       <c r="DG74" t="n" s="10">
-        <v>395.901</v>
+        <v>394.758</v>
       </c>
       <c r="DH74" t="n" s="10">
-        <v>400.476</v>
+        <v>400.536</v>
       </c>
       <c r="DI74" t="n" s="10">
-        <v>399.517</v>
+        <v>399.645</v>
       </c>
       <c r="DJ74" t="n" s="10">
-        <v>399.503</v>
+        <v>400.935</v>
       </c>
       <c r="DK74" t="n" s="10">
-        <v>407.173</v>
+        <v>405.279</v>
       </c>
       <c r="DL74" t="n" s="10">
-        <v>404.771</v>
+        <v>404.321</v>
       </c>
       <c r="DM74" t="n" s="10">
-        <v>409.578</v>
+        <v>410.335</v>
       </c>
       <c r="DN74" t="n" s="10">
-        <v>401.526</v>
+        <v>402.881</v>
       </c>
       <c r="DO74" t="n" s="10">
-        <v>391.476</v>
+        <v>389.903</v>
       </c>
       <c r="DP74" t="n" s="10">
-        <v>315.825</v>
+        <v>313.904</v>
       </c>
       <c r="DQ74" t="n" s="10">
-        <v>371.229</v>
+        <v>374.145</v>
       </c>
       <c r="DR74" t="n" s="10">
-        <v>380.467</v>
+        <v>381.912</v>
       </c>
       <c r="DS74" t="n" s="10">
-        <v>395.06</v>
+        <v>393.099</v>
       </c>
       <c r="DT74" t="n" s="10">
-        <v>411.51</v>
-      </c>
-      <c r="DU74" t="s" s="10">
-        <v>44</v>
+        <v>408.876</v>
+      </c>
+      <c r="DU74" t="n" s="10">
+        <v>424.515</v>
       </c>
       <c r="DV74" t="s" s="10">
         <v>44</v>
@@ -25182,373 +25182,373 @@
         <v>43</v>
       </c>
       <c r="C75" t="n" s="10">
-        <v>83.299</v>
+        <v>83.24</v>
       </c>
       <c r="D75" t="n" s="10">
-        <v>80.305</v>
+        <v>80.311</v>
       </c>
       <c r="E75" t="n" s="10">
-        <v>81.406</v>
+        <v>81.401</v>
       </c>
       <c r="F75" t="n" s="10">
-        <v>84.482</v>
+        <v>84.439</v>
       </c>
       <c r="G75" t="n" s="10">
-        <v>82.863</v>
+        <v>82.877</v>
       </c>
       <c r="H75" t="n" s="10">
-        <v>82.777</v>
+        <v>82.752</v>
       </c>
       <c r="I75" t="n" s="10">
-        <v>81.812</v>
+        <v>81.813</v>
       </c>
       <c r="J75" t="n" s="10">
-        <v>78.298</v>
+        <v>78.312</v>
       </c>
       <c r="K75" t="n" s="10">
-        <v>77.074</v>
+        <v>77.058</v>
       </c>
       <c r="L75" t="n" s="10">
-        <v>74.528</v>
+        <v>74.543</v>
       </c>
       <c r="M75" t="n" s="10">
-        <v>74.62</v>
+        <v>74.631</v>
       </c>
       <c r="N75" t="n" s="10">
-        <v>75.558</v>
+        <v>75.602</v>
       </c>
       <c r="O75" t="n" s="10">
-        <v>79.194</v>
+        <v>79.205</v>
       </c>
       <c r="P75" t="n" s="10">
-        <v>83.178</v>
+        <v>83.195</v>
       </c>
       <c r="Q75" t="n" s="10">
-        <v>84.226</v>
+        <v>84.241</v>
       </c>
       <c r="R75" t="n" s="10">
-        <v>87.155</v>
+        <v>87.142</v>
       </c>
       <c r="S75" t="n" s="10">
-        <v>87.928</v>
+        <v>87.953</v>
       </c>
       <c r="T75" t="n" s="10">
-        <v>90.455</v>
+        <v>90.443</v>
       </c>
       <c r="U75" t="n" s="10">
-        <v>92.163</v>
+        <v>92.136</v>
       </c>
       <c r="V75" t="n" s="10">
-        <v>92.661</v>
+        <v>92.649</v>
       </c>
       <c r="W75" t="n" s="10">
-        <v>93.092</v>
+        <v>93.102</v>
       </c>
       <c r="X75" t="n" s="10">
-        <v>94.628</v>
+        <v>94.602</v>
       </c>
       <c r="Y75" t="n" s="10">
-        <v>95.766</v>
+        <v>95.762</v>
       </c>
       <c r="Z75" t="n" s="10">
-        <v>99.406</v>
+        <v>99.388</v>
       </c>
       <c r="AA75" t="n" s="10">
-        <v>103.479</v>
+        <v>103.416</v>
       </c>
       <c r="AB75" t="n" s="10">
-        <v>104.419</v>
+        <v>104.448</v>
       </c>
       <c r="AC75" t="n" s="10">
-        <v>110.682</v>
+        <v>110.676</v>
       </c>
       <c r="AD75" t="n" s="10">
-        <v>114.189</v>
+        <v>114.162</v>
       </c>
       <c r="AE75" t="n" s="10">
-        <v>115.225</v>
+        <v>115.234</v>
       </c>
       <c r="AF75" t="n" s="10">
-        <v>116.809</v>
+        <v>116.779</v>
       </c>
       <c r="AG75" t="n" s="10">
-        <v>113.696</v>
+        <v>113.705</v>
       </c>
       <c r="AH75" t="n" s="10">
-        <v>112.473</v>
+        <v>112.496</v>
       </c>
       <c r="AI75" t="n" s="10">
-        <v>113.675</v>
+        <v>113.666</v>
       </c>
       <c r="AJ75" t="n" s="10">
-        <v>116.442</v>
+        <v>116.47</v>
       </c>
       <c r="AK75" t="n" s="10">
-        <v>121.078</v>
+        <v>121.101</v>
       </c>
       <c r="AL75" t="n" s="10">
-        <v>123.296</v>
+        <v>123.353</v>
       </c>
       <c r="AM75" t="n" s="10">
-        <v>130.922</v>
+        <v>130.966</v>
       </c>
       <c r="AN75" t="n" s="10">
-        <v>137.604</v>
+        <v>137.598</v>
       </c>
       <c r="AO75" t="n" s="10">
-        <v>142.791</v>
+        <v>142.777</v>
       </c>
       <c r="AP75" t="n" s="10">
-        <v>151.475</v>
+        <v>151.44</v>
       </c>
       <c r="AQ75" t="n" s="10">
-        <v>151.361</v>
+        <v>151.366</v>
       </c>
       <c r="AR75" t="n" s="10">
-        <v>151.172</v>
+        <v>151.153</v>
       </c>
       <c r="AS75" t="n" s="10">
-        <v>151.1</v>
+        <v>151.072</v>
       </c>
       <c r="AT75" t="n" s="10">
-        <v>148.529</v>
+        <v>148.507</v>
       </c>
       <c r="AU75" t="n" s="10">
-        <v>150.657</v>
+        <v>150.609</v>
       </c>
       <c r="AV75" t="n" s="10">
-        <v>153.588</v>
+        <v>153.593</v>
       </c>
       <c r="AW75" t="n" s="10">
-        <v>154.599</v>
+        <v>154.596</v>
       </c>
       <c r="AX75" t="n" s="10">
-        <v>156.564</v>
+        <v>156.55</v>
       </c>
       <c r="AY75" t="n" s="10">
-        <v>154.599</v>
+        <v>154.588</v>
       </c>
       <c r="AZ75" t="n" s="10">
-        <v>152.266</v>
+        <v>152.239</v>
       </c>
       <c r="BA75" t="n" s="10">
-        <v>156.756</v>
+        <v>156.755</v>
       </c>
       <c r="BB75" t="n" s="10">
-        <v>160.481</v>
+        <v>160.455</v>
       </c>
       <c r="BC75" t="n" s="10">
-        <v>165.35</v>
+        <v>165.384</v>
       </c>
       <c r="BD75" t="n" s="10">
-        <v>172.008</v>
+        <v>172.01</v>
       </c>
       <c r="BE75" t="n" s="10">
-        <v>170.57</v>
+        <v>170.586</v>
       </c>
       <c r="BF75" t="n" s="10">
-        <v>171.707</v>
+        <v>171.774</v>
       </c>
       <c r="BG75" t="n" s="10">
-        <v>176.34</v>
+        <v>176.31</v>
       </c>
       <c r="BH75" t="n" s="10">
-        <v>179.676</v>
+        <v>179.741</v>
       </c>
       <c r="BI75" t="n" s="10">
-        <v>188.064</v>
+        <v>188.09</v>
       </c>
       <c r="BJ75" t="n" s="10">
-        <v>191.934</v>
+        <v>191.941</v>
       </c>
       <c r="BK75" t="n" s="10">
-        <v>199.093</v>
+        <v>199.14</v>
       </c>
       <c r="BL75" t="n" s="10">
-        <v>205.837</v>
+        <v>205.809</v>
       </c>
       <c r="BM75" t="n" s="10">
-        <v>212.802</v>
+        <v>212.786</v>
       </c>
       <c r="BN75" t="n" s="10">
-        <v>225.109</v>
+        <v>225.091</v>
       </c>
       <c r="BO75" t="n" s="10">
-        <v>227.003</v>
+        <v>227.012</v>
       </c>
       <c r="BP75" t="n" s="10">
-        <v>230.527</v>
+        <v>230.501</v>
       </c>
       <c r="BQ75" t="n" s="10">
-        <v>234.937</v>
+        <v>234.905</v>
       </c>
       <c r="BR75" t="n" s="10">
-        <v>238.096</v>
+        <v>238.064</v>
       </c>
       <c r="BS75" t="n" s="10">
-        <v>244.075</v>
+        <v>244.053</v>
       </c>
       <c r="BT75" t="n" s="10">
-        <v>241.513</v>
+        <v>241.591</v>
       </c>
       <c r="BU75" t="n" s="10">
-        <v>237.717</v>
+        <v>237.71</v>
       </c>
       <c r="BV75" t="n" s="10">
-        <v>223.801</v>
+        <v>223.747</v>
       </c>
       <c r="BW75" t="n" s="10">
-        <v>192.63</v>
+        <v>192.657</v>
       </c>
       <c r="BX75" t="n" s="10">
-        <v>184.033</v>
+        <v>184.014</v>
       </c>
       <c r="BY75" t="n" s="10">
-        <v>191.087</v>
+        <v>191.089</v>
       </c>
       <c r="BZ75" t="n" s="10">
-        <v>201.84</v>
+        <v>201.846</v>
       </c>
       <c r="CA75" t="n" s="10">
-        <v>211.348</v>
+        <v>211.359</v>
       </c>
       <c r="CB75" t="n" s="10">
-        <v>226.382</v>
+        <v>226.407</v>
       </c>
       <c r="CC75" t="n" s="10">
-        <v>233.913</v>
+        <v>233.931</v>
       </c>
       <c r="CD75" t="n" s="10">
-        <v>243.25</v>
+        <v>243.302</v>
       </c>
       <c r="CE75" t="n" s="10">
-        <v>252.304</v>
+        <v>252.327</v>
       </c>
       <c r="CF75" t="n" s="10">
-        <v>255.082</v>
+        <v>255.107</v>
       </c>
       <c r="CG75" t="n" s="10">
-        <v>258.51</v>
+        <v>258.53</v>
       </c>
       <c r="CH75" t="n" s="10">
         <v>261.531</v>
       </c>
       <c r="CI75" t="n" s="10">
-        <v>266.331</v>
+        <v>266.377</v>
       </c>
       <c r="CJ75" t="n" s="10">
-        <v>268.269</v>
+        <v>268.251</v>
       </c>
       <c r="CK75" t="n" s="10">
-        <v>270.165</v>
+        <v>270.138</v>
       </c>
       <c r="CL75" t="n" s="10">
-        <v>267.322</v>
+        <v>267.298</v>
       </c>
       <c r="CM75" t="n" s="10">
-        <v>266.076</v>
+        <v>266.026</v>
       </c>
       <c r="CN75" t="n" s="10">
-        <v>266.712</v>
+        <v>266.72</v>
       </c>
       <c r="CO75" t="n" s="10">
-        <v>267.032</v>
+        <v>267.028</v>
       </c>
       <c r="CP75" t="n" s="10">
-        <v>271.289</v>
+        <v>271.272</v>
       </c>
       <c r="CQ75" t="n" s="10">
-        <v>272.674</v>
+        <v>272.666</v>
       </c>
       <c r="CR75" t="n" s="10">
-        <v>273.76</v>
+        <v>273.737</v>
       </c>
       <c r="CS75" t="n" s="10">
-        <v>279.264</v>
+        <v>279.255</v>
       </c>
       <c r="CT75" t="n" s="10">
-        <v>284.84</v>
+        <v>284.813</v>
       </c>
       <c r="CU75" t="n" s="10">
-        <v>288.901</v>
+        <v>288.904</v>
       </c>
       <c r="CV75" t="n" s="10">
-        <v>292.899</v>
+        <v>292.868</v>
       </c>
       <c r="CW75" t="n" s="10">
-        <v>293.881</v>
+        <v>293.884</v>
       </c>
       <c r="CX75" t="n" s="10">
-        <v>291.287</v>
+        <v>291.324</v>
       </c>
       <c r="CY75" t="n" s="10">
-        <v>289.651</v>
+        <v>289.622</v>
       </c>
       <c r="CZ75" t="n" s="10">
-        <v>293.094</v>
+        <v>293.161</v>
       </c>
       <c r="DA75" t="n" s="10">
-        <v>294.764</v>
+        <v>294.787</v>
       </c>
       <c r="DB75" t="n" s="10">
-        <v>299.849</v>
+        <v>299.871</v>
       </c>
       <c r="DC75" t="n" s="10">
-        <v>308.777</v>
+        <v>308.753</v>
       </c>
       <c r="DD75" t="n" s="10">
-        <v>311.322</v>
+        <v>311.283</v>
       </c>
       <c r="DE75" t="n" s="10">
-        <v>317.165</v>
+        <v>317.305</v>
       </c>
       <c r="DF75" t="n" s="10">
-        <v>323.024</v>
+        <v>323.291</v>
       </c>
       <c r="DG75" t="n" s="10">
-        <v>322.882</v>
+        <v>321.913</v>
       </c>
       <c r="DH75" t="n" s="10">
-        <v>326.689</v>
+        <v>326.969</v>
       </c>
       <c r="DI75" t="n" s="10">
-        <v>323.807</v>
+        <v>324.236</v>
       </c>
       <c r="DJ75" t="n" s="10">
-        <v>321.96</v>
+        <v>322.613</v>
       </c>
       <c r="DK75" t="n" s="10">
-        <v>329.693</v>
+        <v>328.032</v>
       </c>
       <c r="DL75" t="n" s="10">
-        <v>325.536</v>
+        <v>325.62</v>
       </c>
       <c r="DM75" t="n" s="10">
-        <v>329.208</v>
+        <v>329.981</v>
       </c>
       <c r="DN75" t="n" s="10">
-        <v>322.953</v>
+        <v>323.683</v>
       </c>
       <c r="DO75" t="n" s="10">
-        <v>315.252</v>
+        <v>313.871</v>
       </c>
       <c r="DP75" t="n" s="10">
-        <v>252.507</v>
+        <v>251.524</v>
       </c>
       <c r="DQ75" t="n" s="10">
-        <v>304.587</v>
+        <v>306.898</v>
       </c>
       <c r="DR75" t="n" s="10">
-        <v>314.339</v>
+        <v>315.211</v>
       </c>
       <c r="DS75" t="n" s="10">
-        <v>326.462</v>
+        <v>324.854</v>
       </c>
       <c r="DT75" t="n" s="10">
-        <v>339.575</v>
-      </c>
-      <c r="DU75" t="s" s="10">
-        <v>44</v>
+        <v>337.132</v>
+      </c>
+      <c r="DU75" t="n" s="10">
+        <v>342.112</v>
       </c>
       <c r="DV75" t="s" s="10">
         <v>44</v>
@@ -25562,373 +25562,373 @@
         <v>43</v>
       </c>
       <c r="C76" t="n" s="10">
-        <v>12.492</v>
+        <v>12.427</v>
       </c>
       <c r="D76" t="n" s="10">
-        <v>12.729</v>
+        <v>12.737</v>
       </c>
       <c r="E76" t="n" s="10">
-        <v>13.09</v>
+        <v>13.085</v>
       </c>
       <c r="F76" t="n" s="10">
-        <v>12.767</v>
+        <v>12.719</v>
       </c>
       <c r="G76" t="n" s="10">
-        <v>12.9</v>
+        <v>12.916</v>
       </c>
       <c r="H76" t="n" s="10">
-        <v>12.983</v>
+        <v>12.955</v>
       </c>
       <c r="I76" t="n" s="10">
-        <v>12.68</v>
+        <v>12.682</v>
       </c>
       <c r="J76" t="n" s="10">
-        <v>13.127</v>
+        <v>13.143</v>
       </c>
       <c r="K76" t="n" s="10">
-        <v>12.728</v>
+        <v>12.71</v>
       </c>
       <c r="L76" t="n" s="10">
-        <v>12.832</v>
+        <v>12.849</v>
       </c>
       <c r="M76" t="n" s="10">
-        <v>13.02</v>
+        <v>13.032</v>
       </c>
       <c r="N76" t="n" s="10">
-        <v>12.801</v>
+        <v>12.85</v>
       </c>
       <c r="O76" t="n" s="10">
-        <v>12.919</v>
+        <v>12.932</v>
       </c>
       <c r="P76" t="n" s="10">
-        <v>12.804</v>
+        <v>12.824</v>
       </c>
       <c r="Q76" t="n" s="10">
-        <v>12.818</v>
+        <v>12.835</v>
       </c>
       <c r="R76" t="n" s="10">
-        <v>12.687</v>
+        <v>12.673</v>
       </c>
       <c r="S76" t="n" s="10">
-        <v>13.422</v>
+        <v>13.45</v>
       </c>
       <c r="T76" t="n" s="10">
-        <v>13.243</v>
+        <v>13.229</v>
       </c>
       <c r="U76" t="n" s="10">
-        <v>13.627</v>
+        <v>13.596</v>
       </c>
       <c r="V76" t="n" s="10">
-        <v>14.037</v>
+        <v>14.023</v>
       </c>
       <c r="W76" t="n" s="10">
-        <v>13.798</v>
+        <v>13.81</v>
       </c>
       <c r="X76" t="n" s="10">
-        <v>14.318</v>
+        <v>14.288</v>
       </c>
       <c r="Y76" t="n" s="10">
-        <v>14.42</v>
+        <v>14.416</v>
       </c>
       <c r="Z76" t="n" s="10">
-        <v>15.144</v>
+        <v>15.124</v>
       </c>
       <c r="AA76" t="n" s="10">
-        <v>15.937</v>
+        <v>15.866</v>
       </c>
       <c r="AB76" t="n" s="10">
-        <v>16.889</v>
+        <v>16.922</v>
       </c>
       <c r="AC76" t="n" s="10">
-        <v>17.494</v>
+        <v>17.488</v>
       </c>
       <c r="AD76" t="n" s="10">
-        <v>17.915</v>
+        <v>17.885</v>
       </c>
       <c r="AE76" t="n" s="10">
-        <v>18.515</v>
+        <v>18.525</v>
       </c>
       <c r="AF76" t="n" s="10">
-        <v>18.192</v>
+        <v>18.159</v>
       </c>
       <c r="AG76" t="n" s="10">
-        <v>18.434</v>
+        <v>18.444</v>
       </c>
       <c r="AH76" t="n" s="10">
-        <v>18.034</v>
+        <v>18.06</v>
       </c>
       <c r="AI76" t="n" s="10">
-        <v>17.661</v>
+        <v>17.651</v>
       </c>
       <c r="AJ76" t="n" s="10">
-        <v>18.488</v>
+        <v>18.519</v>
       </c>
       <c r="AK76" t="n" s="10">
-        <v>19.242</v>
+        <v>19.268</v>
       </c>
       <c r="AL76" t="n" s="10">
-        <v>19.737</v>
+        <v>19.801</v>
       </c>
       <c r="AM76" t="n" s="10">
-        <v>21.299</v>
+        <v>21.347</v>
       </c>
       <c r="AN76" t="n" s="10">
-        <v>21.839</v>
+        <v>21.833</v>
       </c>
       <c r="AO76" t="n" s="10">
-        <v>22.184</v>
+        <v>22.169</v>
       </c>
       <c r="AP76" t="n" s="10">
-        <v>22.882</v>
+        <v>22.844</v>
       </c>
       <c r="AQ76" t="n" s="10">
-        <v>22.408</v>
+        <v>22.414</v>
       </c>
       <c r="AR76" t="n" s="10">
-        <v>22.871</v>
+        <v>22.85</v>
       </c>
       <c r="AS76" t="n" s="10">
-        <v>23.147</v>
+        <v>23.117</v>
       </c>
       <c r="AT76" t="n" s="10">
-        <v>24.034</v>
+        <v>24.01</v>
       </c>
       <c r="AU76" t="n" s="10">
-        <v>25.248</v>
+        <v>25.195</v>
       </c>
       <c r="AV76" t="n" s="10">
-        <v>25.9</v>
+        <v>25.905</v>
       </c>
       <c r="AW76" t="n" s="10">
-        <v>26.788</v>
+        <v>26.784</v>
       </c>
       <c r="AX76" t="n" s="10">
-        <v>26.682</v>
+        <v>26.666</v>
       </c>
       <c r="AY76" t="n" s="10">
-        <v>25.969</v>
+        <v>25.956</v>
       </c>
       <c r="AZ76" t="n" s="10">
-        <v>26.169</v>
+        <v>26.139</v>
       </c>
       <c r="BA76" t="n" s="10">
-        <v>26.44</v>
+        <v>26.438</v>
       </c>
       <c r="BB76" t="n" s="10">
-        <v>27.55</v>
+        <v>27.521</v>
       </c>
       <c r="BC76" t="n" s="10">
-        <v>29.201</v>
+        <v>29.239</v>
       </c>
       <c r="BD76" t="n" s="10">
-        <v>30.404</v>
+        <v>30.406</v>
       </c>
       <c r="BE76" t="n" s="10">
-        <v>30.892</v>
+        <v>30.909</v>
       </c>
       <c r="BF76" t="n" s="10">
-        <v>31.217</v>
+        <v>31.292</v>
       </c>
       <c r="BG76" t="n" s="10">
-        <v>31.757</v>
+        <v>31.724</v>
       </c>
       <c r="BH76" t="n" s="10">
-        <v>31.759</v>
+        <v>31.831</v>
       </c>
       <c r="BI76" t="n" s="10">
-        <v>33.181</v>
+        <v>33.21</v>
       </c>
       <c r="BJ76" t="n" s="10">
-        <v>33.948</v>
+        <v>33.956</v>
       </c>
       <c r="BK76" t="n" s="10">
-        <v>35.103</v>
+        <v>35.156</v>
       </c>
       <c r="BL76" t="n" s="10">
-        <v>36.545</v>
+        <v>36.513</v>
       </c>
       <c r="BM76" t="n" s="10">
-        <v>36.802</v>
+        <v>36.785</v>
       </c>
       <c r="BN76" t="n" s="10">
-        <v>38.17</v>
+        <v>38.151</v>
       </c>
       <c r="BO76" t="n" s="10">
-        <v>37.966</v>
+        <v>37.973</v>
       </c>
       <c r="BP76" t="n" s="10">
-        <v>38.887</v>
+        <v>38.847</v>
       </c>
       <c r="BQ76" t="n" s="10">
-        <v>39.763</v>
+        <v>39.737</v>
       </c>
       <c r="BR76" t="n" s="10">
-        <v>39.575</v>
+        <v>39.558</v>
       </c>
       <c r="BS76" t="n" s="10">
-        <v>41.192</v>
+        <v>41.15</v>
       </c>
       <c r="BT76" t="n" s="10">
-        <v>41.342</v>
+        <v>41.404</v>
       </c>
       <c r="BU76" t="n" s="10">
-        <v>41.76</v>
+        <v>41.77</v>
       </c>
       <c r="BV76" t="n" s="10">
-        <v>42.242</v>
+        <v>42.215</v>
       </c>
       <c r="BW76" t="n" s="10">
-        <v>41.066</v>
+        <v>41.07</v>
       </c>
       <c r="BX76" t="n" s="10">
-        <v>40.506</v>
+        <v>40.466</v>
       </c>
       <c r="BY76" t="n" s="10">
-        <v>40.187</v>
+        <v>40.2</v>
       </c>
       <c r="BZ76" t="n" s="10">
-        <v>40.518</v>
+        <v>40.543</v>
       </c>
       <c r="CA76" t="n" s="10">
-        <v>41.715</v>
+        <v>41.716</v>
       </c>
       <c r="CB76" t="n" s="10">
-        <v>43.598</v>
+        <v>43.621</v>
       </c>
       <c r="CC76" t="n" s="10">
-        <v>44.384</v>
+        <v>44.405</v>
       </c>
       <c r="CD76" t="n" s="10">
-        <v>44.338</v>
+        <v>44.397</v>
       </c>
       <c r="CE76" t="n" s="10">
-        <v>45.068</v>
+        <v>45.093</v>
       </c>
       <c r="CF76" t="n" s="10">
-        <v>44.861</v>
+        <v>44.888</v>
       </c>
       <c r="CG76" t="n" s="10">
-        <v>45.89</v>
+        <v>45.912</v>
       </c>
       <c r="CH76" t="n" s="10">
         <v>47.747</v>
       </c>
       <c r="CI76" t="n" s="10">
-        <v>48.674</v>
+        <v>48.726</v>
       </c>
       <c r="CJ76" t="n" s="10">
-        <v>49.745</v>
+        <v>49.725</v>
       </c>
       <c r="CK76" t="n" s="10">
-        <v>50.33</v>
+        <v>50.299</v>
       </c>
       <c r="CL76" t="n" s="10">
-        <v>50.4</v>
+        <v>50.374</v>
       </c>
       <c r="CM76" t="n" s="10">
-        <v>50.422</v>
+        <v>50.365</v>
       </c>
       <c r="CN76" t="n" s="10">
-        <v>51.492</v>
+        <v>51.499</v>
       </c>
       <c r="CO76" t="n" s="10">
-        <v>52.929</v>
+        <v>52.923</v>
       </c>
       <c r="CP76" t="n" s="10">
-        <v>53.46</v>
+        <v>53.465</v>
       </c>
       <c r="CQ76" t="n" s="10">
-        <v>55.281</v>
+        <v>55.272</v>
       </c>
       <c r="CR76" t="n" s="10">
-        <v>56.324</v>
+        <v>56.246</v>
       </c>
       <c r="CS76" t="n" s="10">
-        <v>57.585</v>
+        <v>57.473</v>
       </c>
       <c r="CT76" t="n" s="10">
-        <v>59.116</v>
+        <v>59.393</v>
       </c>
       <c r="CU76" t="n" s="10">
-        <v>61.177</v>
+        <v>61.079</v>
       </c>
       <c r="CV76" t="n" s="10">
-        <v>62.511</v>
+        <v>62.327</v>
       </c>
       <c r="CW76" t="n" s="10">
-        <v>63.835</v>
+        <v>63.636</v>
       </c>
       <c r="CX76" t="n" s="10">
-        <v>65.283</v>
+        <v>65.88</v>
       </c>
       <c r="CY76" t="n" s="10">
-        <v>64.731</v>
+        <v>64.496</v>
       </c>
       <c r="CZ76" t="n" s="10">
-        <v>65.759</v>
+        <v>65.679</v>
       </c>
       <c r="DA76" t="n" s="10">
-        <v>66.483</v>
+        <v>66.399</v>
       </c>
       <c r="DB76" t="n" s="10">
-        <v>67.92</v>
+        <v>68.281</v>
       </c>
       <c r="DC76" t="n" s="10">
-        <v>69.586</v>
+        <v>69.543</v>
       </c>
       <c r="DD76" t="n" s="10">
-        <v>71.008</v>
+        <v>70.841</v>
       </c>
       <c r="DE76" t="n" s="10">
-        <v>71.59</v>
+        <v>71.433</v>
       </c>
       <c r="DF76" t="n" s="10">
-        <v>71.76</v>
+        <v>72.152</v>
       </c>
       <c r="DG76" t="n" s="10">
-        <v>73.019</v>
+        <v>72.845</v>
       </c>
       <c r="DH76" t="n" s="10">
-        <v>73.787</v>
+        <v>73.567</v>
       </c>
       <c r="DI76" t="n" s="10">
-        <v>75.71</v>
+        <v>75.409</v>
       </c>
       <c r="DJ76" t="n" s="10">
-        <v>77.543</v>
+        <v>78.322</v>
       </c>
       <c r="DK76" t="n" s="10">
-        <v>77.48</v>
+        <v>77.247</v>
       </c>
       <c r="DL76" t="n" s="10">
-        <v>79.235</v>
+        <v>78.701</v>
       </c>
       <c r="DM76" t="n" s="10">
-        <v>80.37</v>
+        <v>80.354</v>
       </c>
       <c r="DN76" t="n" s="10">
-        <v>78.573</v>
+        <v>79.198</v>
       </c>
       <c r="DO76" t="n" s="10">
-        <v>76.224</v>
+        <v>76.032</v>
       </c>
       <c r="DP76" t="n" s="10">
-        <v>63.318</v>
+        <v>62.38</v>
       </c>
       <c r="DQ76" t="n" s="10">
-        <v>66.642</v>
+        <v>67.247</v>
       </c>
       <c r="DR76" t="n" s="10">
-        <v>66.128</v>
+        <v>66.701</v>
       </c>
       <c r="DS76" t="n" s="10">
-        <v>68.598</v>
+        <v>68.245</v>
       </c>
       <c r="DT76" t="n" s="10">
-        <v>71.935</v>
-      </c>
-      <c r="DU76" t="s" s="10">
-        <v>44</v>
+        <v>71.744</v>
+      </c>
+      <c r="DU76" t="n" s="10">
+        <v>82.403</v>
       </c>
       <c r="DV76" t="s" s="10">
         <v>44</v>
@@ -25942,373 +25942,373 @@
         <v>43</v>
       </c>
       <c r="C77" t="n" s="10">
-        <v>95.982</v>
+        <v>95.963</v>
       </c>
       <c r="D77" t="n" s="10">
-        <v>96.377</v>
+        <v>96.38</v>
       </c>
       <c r="E77" t="n" s="10">
-        <v>96.856</v>
+        <v>96.854</v>
       </c>
       <c r="F77" t="n" s="10">
-        <v>96.373</v>
+        <v>96.359</v>
       </c>
       <c r="G77" t="n" s="10">
-        <v>98.799</v>
+        <v>98.803</v>
       </c>
       <c r="H77" t="n" s="10">
-        <v>97.235</v>
+        <v>97.227</v>
       </c>
       <c r="I77" t="n" s="10">
         <v>94.927</v>
       </c>
       <c r="J77" t="n" s="10">
-        <v>94.746</v>
+        <v>94.751</v>
       </c>
       <c r="K77" t="n" s="10">
-        <v>89.168</v>
+        <v>89.163</v>
       </c>
       <c r="L77" t="n" s="10">
-        <v>88.08</v>
+        <v>88.085</v>
       </c>
       <c r="M77" t="n" s="10">
-        <v>88.706</v>
+        <v>88.709</v>
       </c>
       <c r="N77" t="n" s="10">
-        <v>87.482</v>
+        <v>87.496</v>
       </c>
       <c r="O77" t="n" s="10">
-        <v>91.937</v>
+        <v>91.942</v>
       </c>
       <c r="P77" t="n" s="10">
-        <v>94.579</v>
+        <v>94.585</v>
       </c>
       <c r="Q77" t="n" s="10">
-        <v>96.706</v>
+        <v>96.711</v>
       </c>
       <c r="R77" t="n" s="10">
-        <v>99.759</v>
+        <v>99.754</v>
       </c>
       <c r="S77" t="n" s="10">
-        <v>100.631</v>
+        <v>100.638</v>
       </c>
       <c r="T77" t="n" s="10">
-        <v>102.086</v>
+        <v>102.082</v>
       </c>
       <c r="U77" t="n" s="10">
-        <v>103.44</v>
+        <v>103.431</v>
       </c>
       <c r="V77" t="n" s="10">
-        <v>103.65</v>
+        <v>103.646</v>
       </c>
       <c r="W77" t="n" s="10">
-        <v>103.96</v>
+        <v>103.963</v>
       </c>
       <c r="X77" t="n" s="10">
-        <v>105.683</v>
+        <v>105.674</v>
       </c>
       <c r="Y77" t="n" s="10">
-        <v>106.357</v>
+        <v>106.356</v>
       </c>
       <c r="Z77" t="n" s="10">
-        <v>110.478</v>
+        <v>110.472</v>
       </c>
       <c r="AA77" t="n" s="10">
-        <v>115.003</v>
+        <v>114.981</v>
       </c>
       <c r="AB77" t="n" s="10">
-        <v>116.614</v>
+        <v>116.623</v>
       </c>
       <c r="AC77" t="n" s="10">
-        <v>121.806</v>
+        <v>121.803</v>
       </c>
       <c r="AD77" t="n" s="10">
-        <v>124.683</v>
+        <v>124.674</v>
       </c>
       <c r="AE77" t="n" s="10">
-        <v>126.167</v>
+        <v>126.171</v>
       </c>
       <c r="AF77" t="n" s="10">
-        <v>127.9</v>
+        <v>127.89</v>
       </c>
       <c r="AG77" t="n" s="10">
-        <v>126.383</v>
+        <v>126.387</v>
       </c>
       <c r="AH77" t="n" s="10">
-        <v>125.829</v>
+        <v>125.837</v>
       </c>
       <c r="AI77" t="n" s="10">
-        <v>128.533</v>
+        <v>128.53</v>
       </c>
       <c r="AJ77" t="n" s="10">
-        <v>132.716</v>
+        <v>132.726</v>
       </c>
       <c r="AK77" t="n" s="10">
-        <v>137.83</v>
+        <v>137.838</v>
       </c>
       <c r="AL77" t="n" s="10">
-        <v>140.07</v>
+        <v>140.089</v>
       </c>
       <c r="AM77" t="n" s="10">
-        <v>150.094</v>
+        <v>150.108</v>
       </c>
       <c r="AN77" t="n" s="10">
-        <v>156.924</v>
+        <v>156.923</v>
       </c>
       <c r="AO77" t="n" s="10">
-        <v>164.374</v>
+        <v>164.37</v>
       </c>
       <c r="AP77" t="n" s="10">
-        <v>174.511</v>
+        <v>174.5</v>
       </c>
       <c r="AQ77" t="n" s="10">
-        <v>169.693</v>
+        <v>169.695</v>
       </c>
       <c r="AR77" t="n" s="10">
-        <v>167.803</v>
+        <v>167.796</v>
       </c>
       <c r="AS77" t="n" s="10">
-        <v>164.167</v>
+        <v>164.158</v>
       </c>
       <c r="AT77" t="n" s="10">
-        <v>157.179</v>
+        <v>157.171</v>
       </c>
       <c r="AU77" t="n" s="10">
-        <v>154.709</v>
+        <v>154.693</v>
       </c>
       <c r="AV77" t="n" s="10">
-        <v>156.566</v>
+        <v>156.567</v>
       </c>
       <c r="AW77" t="n" s="10">
-        <v>156.356</v>
+        <v>156.355</v>
       </c>
       <c r="AX77" t="n" s="10">
-        <v>158.334</v>
+        <v>158.33</v>
       </c>
       <c r="AY77" t="n" s="10">
-        <v>162.169</v>
+        <v>162.166</v>
       </c>
       <c r="AZ77" t="n" s="10">
-        <v>159.149</v>
+        <v>159.14</v>
       </c>
       <c r="BA77" t="n" s="10">
         <v>159.52</v>
       </c>
       <c r="BB77" t="n" s="10">
-        <v>162.616</v>
+        <v>162.608</v>
       </c>
       <c r="BC77" t="n" s="10">
-        <v>165.592</v>
+        <v>165.603</v>
       </c>
       <c r="BD77" t="n" s="10">
         <v>170.361</v>
       </c>
       <c r="BE77" t="n" s="10">
-        <v>174.44</v>
+        <v>174.444</v>
       </c>
       <c r="BF77" t="n" s="10">
-        <v>175.118</v>
+        <v>175.14</v>
       </c>
       <c r="BG77" t="n" s="10">
-        <v>176.588</v>
+        <v>176.578</v>
       </c>
       <c r="BH77" t="n" s="10">
-        <v>183.711</v>
+        <v>183.732</v>
       </c>
       <c r="BI77" t="n" s="10">
-        <v>190.828</v>
+        <v>190.837</v>
       </c>
       <c r="BJ77" t="n" s="10">
-        <v>199.421</v>
+        <v>199.423</v>
       </c>
       <c r="BK77" t="n" s="10">
-        <v>207.891</v>
+        <v>207.907</v>
       </c>
       <c r="BL77" t="n" s="10">
-        <v>212.664</v>
+        <v>212.655</v>
       </c>
       <c r="BM77" t="n" s="10">
-        <v>216.858</v>
+        <v>216.853</v>
       </c>
       <c r="BN77" t="n" s="10">
-        <v>223.229</v>
+        <v>223.222</v>
       </c>
       <c r="BO77" t="n" s="10">
-        <v>225.167</v>
+        <v>225.169</v>
       </c>
       <c r="BP77" t="n" s="10">
-        <v>228.07</v>
+        <v>228.059</v>
       </c>
       <c r="BQ77" t="n" s="10">
-        <v>228.438</v>
+        <v>228.432</v>
       </c>
       <c r="BR77" t="n" s="10">
-        <v>233.481</v>
+        <v>233.472</v>
       </c>
       <c r="BS77" t="n" s="10">
-        <v>240.529</v>
+        <v>240.518</v>
       </c>
       <c r="BT77" t="n" s="10">
-        <v>242.307</v>
+        <v>242.327</v>
       </c>
       <c r="BU77" t="n" s="10">
-        <v>242.038</v>
+        <v>242.043</v>
       </c>
       <c r="BV77" t="n" s="10">
-        <v>235.434</v>
+        <v>235.419</v>
       </c>
       <c r="BW77" t="n" s="10">
-        <v>210.304</v>
+        <v>210.307</v>
       </c>
       <c r="BX77" t="n" s="10">
-        <v>196.704</v>
+        <v>196.694</v>
       </c>
       <c r="BY77" t="n" s="10">
-        <v>197.967</v>
+        <v>197.971</v>
       </c>
       <c r="BZ77" t="n" s="10">
-        <v>206.321</v>
+        <v>206.324</v>
       </c>
       <c r="CA77" t="n" s="10">
-        <v>219.519</v>
+        <v>219.52</v>
       </c>
       <c r="CB77" t="n" s="10">
-        <v>237.621</v>
+        <v>237.629</v>
       </c>
       <c r="CC77" t="n" s="10">
-        <v>244.18</v>
+        <v>244.187</v>
       </c>
       <c r="CD77" t="n" s="10">
-        <v>254.156</v>
+        <v>254.174</v>
       </c>
       <c r="CE77" t="n" s="10">
-        <v>263.639</v>
+        <v>263.647</v>
       </c>
       <c r="CF77" t="n" s="10">
-        <v>268.346</v>
+        <v>268.354</v>
       </c>
       <c r="CG77" t="n" s="10">
-        <v>272.301</v>
+        <v>272.306</v>
       </c>
       <c r="CH77" t="n" s="10">
-        <v>274.751</v>
+        <v>274.752</v>
       </c>
       <c r="CI77" t="n" s="10">
-        <v>275.861</v>
+        <v>275.877</v>
       </c>
       <c r="CJ77" t="n" s="10">
-        <v>275.247</v>
+        <v>275.241</v>
       </c>
       <c r="CK77" t="n" s="10">
-        <v>276.071</v>
+        <v>276.062</v>
       </c>
       <c r="CL77" t="n" s="10">
-        <v>276.068</v>
+        <v>276.06</v>
       </c>
       <c r="CM77" t="n" s="10">
-        <v>276.24</v>
+        <v>276.223</v>
       </c>
       <c r="CN77" t="n" s="10">
-        <v>277.996</v>
+        <v>277.998</v>
       </c>
       <c r="CO77" t="n" s="10">
-        <v>280.732</v>
+        <v>280.731</v>
       </c>
       <c r="CP77" t="n" s="10">
-        <v>281.031</v>
+        <v>281.026</v>
       </c>
       <c r="CQ77" t="n" s="10">
-        <v>282.493</v>
+        <v>282.49</v>
       </c>
       <c r="CR77" t="n" s="10">
-        <v>284.021</v>
+        <v>284.014</v>
       </c>
       <c r="CS77" t="n" s="10">
-        <v>286.162</v>
+        <v>286.159</v>
       </c>
       <c r="CT77" t="n" s="10">
-        <v>290.182</v>
+        <v>290.173</v>
       </c>
       <c r="CU77" t="n" s="10">
-        <v>293.619</v>
+        <v>293.62</v>
       </c>
       <c r="CV77" t="n" s="10">
-        <v>297.401</v>
+        <v>297.391</v>
       </c>
       <c r="CW77" t="n" s="10">
         <v>299.708</v>
       </c>
       <c r="CX77" t="n" s="10">
-        <v>298.747</v>
+        <v>298.761</v>
       </c>
       <c r="CY77" t="n" s="10">
-        <v>297.11</v>
+        <v>297.1</v>
       </c>
       <c r="CZ77" t="n" s="10">
-        <v>298.443</v>
+        <v>298.464</v>
       </c>
       <c r="DA77" t="n" s="10">
-        <v>304.036</v>
+        <v>304.04</v>
       </c>
       <c r="DB77" t="n" s="10">
-        <v>312.176</v>
+        <v>312.18</v>
       </c>
       <c r="DC77" t="n" s="10">
-        <v>321.543</v>
+        <v>321.581</v>
       </c>
       <c r="DD77" t="n" s="10">
-        <v>327.657</v>
+        <v>327.643</v>
       </c>
       <c r="DE77" t="n" s="10">
-        <v>327.926</v>
+        <v>327.881</v>
       </c>
       <c r="DF77" t="n" s="10">
-        <v>333.766</v>
+        <v>333.673</v>
       </c>
       <c r="DG77" t="n" s="10">
-        <v>335.932</v>
+        <v>336.171</v>
       </c>
       <c r="DH77" t="n" s="10">
-        <v>343.602</v>
+        <v>343.452</v>
       </c>
       <c r="DI77" t="n" s="10">
-        <v>353.383</v>
+        <v>353.289</v>
       </c>
       <c r="DJ77" t="n" s="10">
-        <v>354.138</v>
+        <v>354.049</v>
       </c>
       <c r="DK77" t="n" s="10">
-        <v>353.906</v>
+        <v>354.487</v>
       </c>
       <c r="DL77" t="n" s="10">
-        <v>357.847</v>
+        <v>356.826</v>
       </c>
       <c r="DM77" t="n" s="10">
-        <v>360.116</v>
+        <v>360.401</v>
       </c>
       <c r="DN77" t="n" s="10">
-        <v>355.203</v>
+        <v>355.728</v>
       </c>
       <c r="DO77" t="n" s="10">
-        <v>344.651</v>
+        <v>344.586</v>
       </c>
       <c r="DP77" t="n" s="10">
-        <v>281.994</v>
+        <v>279.576</v>
       </c>
       <c r="DQ77" t="n" s="10">
-        <v>318.427</v>
+        <v>320.478</v>
       </c>
       <c r="DR77" t="n" s="10">
-        <v>323.21</v>
+        <v>324.348</v>
       </c>
       <c r="DS77" t="n" s="10">
-        <v>337.877</v>
+        <v>336.407</v>
       </c>
       <c r="DT77" t="n" s="10">
-        <v>359.244</v>
-      </c>
-      <c r="DU77" t="s" s="10">
-        <v>44</v>
+        <v>358.175</v>
+      </c>
+      <c r="DU77" t="n" s="10">
+        <v>383.78</v>
       </c>
       <c r="DV77" t="s" s="10">
         <v>44</v>
@@ -26322,373 +26322,373 @@
         <v>43</v>
       </c>
       <c r="C78" t="n" s="10">
-        <v>77.259</v>
+        <v>77.242</v>
       </c>
       <c r="D78" t="n" s="10">
-        <v>77.383</v>
+        <v>77.385</v>
       </c>
       <c r="E78" t="n" s="10">
-        <v>77.629</v>
+        <v>77.627</v>
       </c>
       <c r="F78" t="n" s="10">
-        <v>76.713</v>
+        <v>76.701</v>
       </c>
       <c r="G78" t="n" s="10">
-        <v>78.052</v>
+        <v>78.056</v>
       </c>
       <c r="H78" t="n" s="10">
-        <v>76.36</v>
+        <v>76.353</v>
       </c>
       <c r="I78" t="n" s="10">
         <v>73.793</v>
       </c>
       <c r="J78" t="n" s="10">
-        <v>73.114</v>
+        <v>73.118</v>
       </c>
       <c r="K78" t="n" s="10">
-        <v>68.038</v>
+        <v>68.033</v>
       </c>
       <c r="L78" t="n" s="10">
-        <v>66.394</v>
+        <v>66.398</v>
       </c>
       <c r="M78" t="n" s="10">
-        <v>66.891</v>
+        <v>66.894</v>
       </c>
       <c r="N78" t="n" s="10">
-        <v>65.411</v>
+        <v>65.424</v>
       </c>
       <c r="O78" t="n" s="10">
-        <v>69.428</v>
+        <v>69.432</v>
       </c>
       <c r="P78" t="n" s="10">
-        <v>71.554</v>
+        <v>71.559</v>
       </c>
       <c r="Q78" t="n" s="10">
-        <v>73.229</v>
+        <v>73.234</v>
       </c>
       <c r="R78" t="n" s="10">
-        <v>76.316</v>
+        <v>76.312</v>
       </c>
       <c r="S78" t="n" s="10">
-        <v>76.311</v>
+        <v>76.318</v>
       </c>
       <c r="T78" t="n" s="10">
-        <v>78.095</v>
+        <v>78.092</v>
       </c>
       <c r="U78" t="n" s="10">
-        <v>79.072</v>
+        <v>79.064</v>
       </c>
       <c r="V78" t="n" s="10">
-        <v>78.976</v>
+        <v>78.973</v>
       </c>
       <c r="W78" t="n" s="10">
-        <v>79.244</v>
+        <v>79.247</v>
       </c>
       <c r="X78" t="n" s="10">
-        <v>80.287</v>
+        <v>80.279</v>
       </c>
       <c r="Y78" t="n" s="10">
-        <v>80.501</v>
+        <v>80.5</v>
       </c>
       <c r="Z78" t="n" s="10">
-        <v>83.83</v>
+        <v>83.825</v>
       </c>
       <c r="AA78" t="n" s="10">
-        <v>87.356</v>
+        <v>87.337</v>
       </c>
       <c r="AB78" t="n" s="10">
-        <v>88.173</v>
+        <v>88.181</v>
       </c>
       <c r="AC78" t="n" s="10">
-        <v>93.079</v>
+        <v>93.077</v>
       </c>
       <c r="AD78" t="n" s="10">
-        <v>95.493</v>
+        <v>95.485</v>
       </c>
       <c r="AE78" t="n" s="10">
-        <v>96.708</v>
+        <v>96.711</v>
       </c>
       <c r="AF78" t="n" s="10">
-        <v>98.16</v>
+        <v>98.151</v>
       </c>
       <c r="AG78" t="n" s="10">
-        <v>95.912</v>
+        <v>95.915</v>
       </c>
       <c r="AH78" t="n" s="10">
-        <v>95.61</v>
+        <v>95.617</v>
       </c>
       <c r="AI78" t="n" s="10">
-        <v>97.471</v>
+        <v>97.468</v>
       </c>
       <c r="AJ78" t="n" s="10">
-        <v>100.266</v>
+        <v>100.274</v>
       </c>
       <c r="AK78" t="n" s="10">
-        <v>104.457</v>
+        <v>104.464</v>
       </c>
       <c r="AL78" t="n" s="10">
-        <v>105.223</v>
+        <v>105.24</v>
       </c>
       <c r="AM78" t="n" s="10">
-        <v>114.512</v>
+        <v>114.525</v>
       </c>
       <c r="AN78" t="n" s="10">
-        <v>120.329</v>
+        <v>120.328</v>
       </c>
       <c r="AO78" t="n" s="10">
-        <v>126.886</v>
+        <v>126.882</v>
       </c>
       <c r="AP78" t="n" s="10">
-        <v>135.472</v>
+        <v>135.462</v>
       </c>
       <c r="AQ78" t="n" s="10">
-        <v>130.105</v>
+        <v>130.107</v>
       </c>
       <c r="AR78" t="n" s="10">
-        <v>128.084</v>
+        <v>128.078</v>
       </c>
       <c r="AS78" t="n" s="10">
-        <v>124.206</v>
+        <v>124.198</v>
       </c>
       <c r="AT78" t="n" s="10">
-        <v>117.877</v>
+        <v>117.87</v>
       </c>
       <c r="AU78" t="n" s="10">
-        <v>115.832</v>
+        <v>115.818</v>
       </c>
       <c r="AV78" t="n" s="10">
-        <v>117.942</v>
+        <v>117.943</v>
       </c>
       <c r="AW78" t="n" s="10">
-        <v>118.572</v>
+        <v>118.571</v>
       </c>
       <c r="AX78" t="n" s="10">
-        <v>120.3</v>
+        <v>120.296</v>
       </c>
       <c r="AY78" t="n" s="10">
-        <v>124.086</v>
+        <v>124.083</v>
       </c>
       <c r="AZ78" t="n" s="10">
-        <v>121.535</v>
+        <v>121.527</v>
       </c>
       <c r="BA78" t="n" s="10">
         <v>120.798</v>
       </c>
       <c r="BB78" t="n" s="10">
-        <v>124.467</v>
+        <v>124.46</v>
       </c>
       <c r="BC78" t="n" s="10">
-        <v>126.807</v>
+        <v>126.817</v>
       </c>
       <c r="BD78" t="n" s="10">
         <v>130.625</v>
       </c>
       <c r="BE78" t="n" s="10">
-        <v>135.49</v>
+        <v>135.494</v>
       </c>
       <c r="BF78" t="n" s="10">
-        <v>135.469</v>
+        <v>135.488</v>
       </c>
       <c r="BG78" t="n" s="10">
-        <v>136.226</v>
+        <v>136.218</v>
       </c>
       <c r="BH78" t="n" s="10">
-        <v>142.196</v>
+        <v>142.215</v>
       </c>
       <c r="BI78" t="n" s="10">
-        <v>147.823</v>
+        <v>147.831</v>
       </c>
       <c r="BJ78" t="n" s="10">
-        <v>155.921</v>
+        <v>155.923</v>
       </c>
       <c r="BK78" t="n" s="10">
-        <v>163.706</v>
+        <v>163.72</v>
       </c>
       <c r="BL78" t="n" s="10">
-        <v>168.611</v>
+        <v>168.603</v>
       </c>
       <c r="BM78" t="n" s="10">
-        <v>172.572</v>
+        <v>172.567</v>
       </c>
       <c r="BN78" t="n" s="10">
-        <v>177.396</v>
+        <v>177.39</v>
       </c>
       <c r="BO78" t="n" s="10">
-        <v>179.003</v>
+        <v>179.005</v>
       </c>
       <c r="BP78" t="n" s="10">
-        <v>181.326</v>
+        <v>181.316</v>
       </c>
       <c r="BQ78" t="n" s="10">
-        <v>180.609</v>
+        <v>180.604</v>
       </c>
       <c r="BR78" t="n" s="10">
-        <v>185.801</v>
+        <v>185.792</v>
       </c>
       <c r="BS78" t="n" s="10">
-        <v>191.478</v>
+        <v>191.468</v>
       </c>
       <c r="BT78" t="n" s="10">
-        <v>192.745</v>
+        <v>192.763</v>
       </c>
       <c r="BU78" t="n" s="10">
-        <v>192.853</v>
+        <v>192.858</v>
       </c>
       <c r="BV78" t="n" s="10">
-        <v>187.15</v>
+        <v>187.136</v>
       </c>
       <c r="BW78" t="n" s="10">
-        <v>164.509</v>
+        <v>164.512</v>
       </c>
       <c r="BX78" t="n" s="10">
-        <v>152.05</v>
+        <v>152.042</v>
       </c>
       <c r="BY78" t="n" s="10">
-        <v>153.306</v>
+        <v>153.31</v>
       </c>
       <c r="BZ78" t="n" s="10">
-        <v>160.858</v>
+        <v>160.861</v>
       </c>
       <c r="CA78" t="n" s="10">
-        <v>171.469</v>
+        <v>171.47</v>
       </c>
       <c r="CB78" t="n" s="10">
-        <v>187.018</v>
+        <v>187.025</v>
       </c>
       <c r="CC78" t="n" s="10">
-        <v>192.941</v>
+        <v>192.947</v>
       </c>
       <c r="CD78" t="n" s="10">
-        <v>201.587</v>
+        <v>201.603</v>
       </c>
       <c r="CE78" t="n" s="10">
-        <v>210.859</v>
+        <v>210.866</v>
       </c>
       <c r="CF78" t="n" s="10">
-        <v>214.917</v>
+        <v>214.924</v>
       </c>
       <c r="CG78" t="n" s="10">
-        <v>217.691</v>
+        <v>217.696</v>
       </c>
       <c r="CH78" t="n" s="10">
-        <v>218.665</v>
+        <v>218.666</v>
       </c>
       <c r="CI78" t="n" s="10">
-        <v>218.39</v>
+        <v>218.404</v>
       </c>
       <c r="CJ78" t="n" s="10">
-        <v>217.217</v>
+        <v>217.212</v>
       </c>
       <c r="CK78" t="n" s="10">
-        <v>216.59</v>
+        <v>216.582</v>
       </c>
       <c r="CL78" t="n" s="10">
-        <v>217.02</v>
+        <v>217.013</v>
       </c>
       <c r="CM78" t="n" s="10">
-        <v>215.311</v>
+        <v>215.296</v>
       </c>
       <c r="CN78" t="n" s="10">
-        <v>216.216</v>
+        <v>216.218</v>
       </c>
       <c r="CO78" t="n" s="10">
-        <v>219.015</v>
+        <v>219.014</v>
       </c>
       <c r="CP78" t="n" s="10">
-        <v>219.04</v>
+        <v>219.035</v>
       </c>
       <c r="CQ78" t="n" s="10">
-        <v>220.782</v>
+        <v>220.779</v>
       </c>
       <c r="CR78" t="n" s="10">
-        <v>221.327</v>
+        <v>221.321</v>
       </c>
       <c r="CS78" t="n" s="10">
-        <v>221.823</v>
+        <v>221.82</v>
       </c>
       <c r="CT78" t="n" s="10">
-        <v>225.37</v>
+        <v>225.362</v>
       </c>
       <c r="CU78" t="n" s="10">
-        <v>227.717</v>
+        <v>227.718</v>
       </c>
       <c r="CV78" t="n" s="10">
-        <v>230.496</v>
+        <v>230.487</v>
       </c>
       <c r="CW78" t="n" s="10">
         <v>231.554</v>
       </c>
       <c r="CX78" t="n" s="10">
-        <v>228.139</v>
+        <v>228.151</v>
       </c>
       <c r="CY78" t="n" s="10">
-        <v>226.605</v>
+        <v>226.596</v>
       </c>
       <c r="CZ78" t="n" s="10">
-        <v>227.454</v>
+        <v>227.473</v>
       </c>
       <c r="DA78" t="n" s="10">
-        <v>232.286</v>
+        <v>232.291</v>
       </c>
       <c r="DB78" t="n" s="10">
-        <v>239.359</v>
+        <v>239.364</v>
       </c>
       <c r="DC78" t="n" s="10">
-        <v>246.529</v>
+        <v>246.544</v>
       </c>
       <c r="DD78" t="n" s="10">
-        <v>250.082</v>
+        <v>250.07</v>
       </c>
       <c r="DE78" t="n" s="10">
-        <v>250.706</v>
+        <v>250.701</v>
       </c>
       <c r="DF78" t="n" s="10">
-        <v>256.149</v>
+        <v>256.139</v>
       </c>
       <c r="DG78" t="n" s="10">
-        <v>259.056</v>
+        <v>259.047</v>
       </c>
       <c r="DH78" t="n" s="10">
-        <v>265.56</v>
+        <v>265.532</v>
       </c>
       <c r="DI78" t="n" s="10">
-        <v>272.653</v>
+        <v>272.645</v>
       </c>
       <c r="DJ78" t="n" s="10">
-        <v>272.713</v>
+        <v>272.756</v>
       </c>
       <c r="DK78" t="n" s="10">
-        <v>274.306</v>
+        <v>274.369</v>
       </c>
       <c r="DL78" t="n" s="10">
-        <v>273.03</v>
+        <v>272.575</v>
       </c>
       <c r="DM78" t="n" s="10">
-        <v>273.791</v>
+        <v>273.984</v>
       </c>
       <c r="DN78" t="n" s="10">
-        <v>269.965</v>
+        <v>270.296</v>
       </c>
       <c r="DO78" t="n" s="10">
-        <v>264.926</v>
+        <v>264.711</v>
       </c>
       <c r="DP78" t="n" s="10">
-        <v>221.435</v>
+        <v>220.059</v>
       </c>
       <c r="DQ78" t="n" s="10">
-        <v>252.711</v>
+        <v>254.089</v>
       </c>
       <c r="DR78" t="n" s="10">
-        <v>260.45</v>
+        <v>261.081</v>
       </c>
       <c r="DS78" t="n" s="10">
-        <v>272.179</v>
+        <v>270.992</v>
       </c>
       <c r="DT78" t="n" s="10">
-        <v>289.653</v>
-      </c>
-      <c r="DU78" t="s" s="10">
-        <v>44</v>
+        <v>288.791</v>
+      </c>
+      <c r="DU78" t="n" s="10">
+        <v>299.1</v>
       </c>
       <c r="DV78" t="s" s="10">
         <v>44</v>
@@ -26702,115 +26702,115 @@
         <v>43</v>
       </c>
       <c r="C79" t="n" s="10">
-        <v>18.723</v>
+        <v>18.721</v>
       </c>
       <c r="D79" t="n" s="10">
-        <v>18.994</v>
+        <v>18.995</v>
       </c>
       <c r="E79" t="n" s="10">
         <v>19.227</v>
       </c>
       <c r="F79" t="n" s="10">
-        <v>19.66</v>
+        <v>19.658</v>
       </c>
       <c r="G79" t="n" s="10">
         <v>20.747</v>
       </c>
       <c r="H79" t="n" s="10">
-        <v>20.875</v>
+        <v>20.874</v>
       </c>
       <c r="I79" t="n" s="10">
         <v>21.134</v>
       </c>
       <c r="J79" t="n" s="10">
-        <v>21.632</v>
+        <v>21.633</v>
       </c>
       <c r="K79" t="n" s="10">
         <v>21.13</v>
       </c>
       <c r="L79" t="n" s="10">
-        <v>21.686</v>
+        <v>21.687</v>
       </c>
       <c r="M79" t="n" s="10">
         <v>21.815</v>
       </c>
       <c r="N79" t="n" s="10">
-        <v>22.071</v>
+        <v>22.072</v>
       </c>
       <c r="O79" t="n" s="10">
-        <v>22.509</v>
+        <v>22.51</v>
       </c>
       <c r="P79" t="n" s="10">
-        <v>23.025</v>
+        <v>23.026</v>
       </c>
       <c r="Q79" t="n" s="10">
         <v>23.477</v>
       </c>
       <c r="R79" t="n" s="10">
-        <v>23.443</v>
+        <v>23.442</v>
       </c>
       <c r="S79" t="n" s="10">
         <v>24.32</v>
       </c>
       <c r="T79" t="n" s="10">
-        <v>23.991</v>
+        <v>23.99</v>
       </c>
       <c r="U79" t="n" s="10">
-        <v>24.368</v>
+        <v>24.367</v>
       </c>
       <c r="V79" t="n" s="10">
-        <v>24.674</v>
+        <v>24.673</v>
       </c>
       <c r="W79" t="n" s="10">
         <v>24.716</v>
       </c>
       <c r="X79" t="n" s="10">
-        <v>25.396</v>
+        <v>25.395</v>
       </c>
       <c r="Y79" t="n" s="10">
         <v>25.856</v>
       </c>
       <c r="Z79" t="n" s="10">
-        <v>26.648</v>
+        <v>26.647</v>
       </c>
       <c r="AA79" t="n" s="10">
-        <v>27.647</v>
+        <v>27.644</v>
       </c>
       <c r="AB79" t="n" s="10">
-        <v>28.441</v>
+        <v>28.442</v>
       </c>
       <c r="AC79" t="n" s="10">
-        <v>28.727</v>
+        <v>28.726</v>
       </c>
       <c r="AD79" t="n" s="10">
-        <v>29.19</v>
+        <v>29.189</v>
       </c>
       <c r="AE79" t="n" s="10">
-        <v>29.459</v>
+        <v>29.46</v>
       </c>
       <c r="AF79" t="n" s="10">
-        <v>29.74</v>
+        <v>29.739</v>
       </c>
       <c r="AG79" t="n" s="10">
-        <v>30.471</v>
+        <v>30.472</v>
       </c>
       <c r="AH79" t="n" s="10">
-        <v>30.219</v>
+        <v>30.22</v>
       </c>
       <c r="AI79" t="n" s="10">
         <v>31.062</v>
       </c>
       <c r="AJ79" t="n" s="10">
-        <v>32.45</v>
+        <v>32.452</v>
       </c>
       <c r="AK79" t="n" s="10">
-        <v>33.373</v>
+        <v>33.374</v>
       </c>
       <c r="AL79" t="n" s="10">
-        <v>34.847</v>
+        <v>34.849</v>
       </c>
       <c r="AM79" t="n" s="10">
-        <v>35.582</v>
+        <v>35.583</v>
       </c>
       <c r="AN79" t="n" s="10">
         <v>36.595</v>
@@ -26819,22 +26819,22 @@
         <v>37.488</v>
       </c>
       <c r="AP79" t="n" s="10">
-        <v>39.039</v>
+        <v>39.038</v>
       </c>
       <c r="AQ79" t="n" s="10">
         <v>39.588</v>
       </c>
       <c r="AR79" t="n" s="10">
-        <v>39.719</v>
+        <v>39.718</v>
       </c>
       <c r="AS79" t="n" s="10">
-        <v>39.961</v>
+        <v>39.96</v>
       </c>
       <c r="AT79" t="n" s="10">
-        <v>39.302</v>
+        <v>39.301</v>
       </c>
       <c r="AU79" t="n" s="10">
-        <v>38.877</v>
+        <v>38.875</v>
       </c>
       <c r="AV79" t="n" s="10">
         <v>38.624</v>
@@ -26849,16 +26849,16 @@
         <v>38.083</v>
       </c>
       <c r="AZ79" t="n" s="10">
-        <v>37.614</v>
+        <v>37.613</v>
       </c>
       <c r="BA79" t="n" s="10">
         <v>38.722</v>
       </c>
       <c r="BB79" t="n" s="10">
-        <v>38.149</v>
+        <v>38.148</v>
       </c>
       <c r="BC79" t="n" s="10">
-        <v>38.785</v>
+        <v>38.786</v>
       </c>
       <c r="BD79" t="n" s="10">
         <v>39.736</v>
@@ -26867,61 +26867,61 @@
         <v>38.95</v>
       </c>
       <c r="BF79" t="n" s="10">
-        <v>39.649</v>
+        <v>39.652</v>
       </c>
       <c r="BG79" t="n" s="10">
-        <v>40.362</v>
+        <v>40.36</v>
       </c>
       <c r="BH79" t="n" s="10">
-        <v>41.515</v>
+        <v>41.517</v>
       </c>
       <c r="BI79" t="n" s="10">
-        <v>43.005</v>
+        <v>43.006</v>
       </c>
       <c r="BJ79" t="n" s="10">
         <v>43.5</v>
       </c>
       <c r="BK79" t="n" s="10">
-        <v>44.185</v>
+        <v>44.187</v>
       </c>
       <c r="BL79" t="n" s="10">
-        <v>44.053</v>
+        <v>44.052</v>
       </c>
       <c r="BM79" t="n" s="10">
         <v>44.286</v>
       </c>
       <c r="BN79" t="n" s="10">
-        <v>45.833</v>
+        <v>45.832</v>
       </c>
       <c r="BO79" t="n" s="10">
         <v>46.164</v>
       </c>
       <c r="BP79" t="n" s="10">
-        <v>46.744</v>
+        <v>46.743</v>
       </c>
       <c r="BQ79" t="n" s="10">
-        <v>47.829</v>
+        <v>47.828</v>
       </c>
       <c r="BR79" t="n" s="10">
         <v>47.68</v>
       </c>
       <c r="BS79" t="n" s="10">
-        <v>49.051</v>
+        <v>49.05</v>
       </c>
       <c r="BT79" t="n" s="10">
-        <v>49.562</v>
+        <v>49.564</v>
       </c>
       <c r="BU79" t="n" s="10">
         <v>49.185</v>
       </c>
       <c r="BV79" t="n" s="10">
-        <v>48.284</v>
+        <v>48.283</v>
       </c>
       <c r="BW79" t="n" s="10">
         <v>45.795</v>
       </c>
       <c r="BX79" t="n" s="10">
-        <v>44.654</v>
+        <v>44.652</v>
       </c>
       <c r="BY79" t="n" s="10">
         <v>44.661</v>
@@ -26933,19 +26933,19 @@
         <v>48.05</v>
       </c>
       <c r="CB79" t="n" s="10">
-        <v>50.603</v>
+        <v>50.604</v>
       </c>
       <c r="CC79" t="n" s="10">
-        <v>51.239</v>
+        <v>51.24</v>
       </c>
       <c r="CD79" t="n" s="10">
-        <v>52.569</v>
+        <v>52.571</v>
       </c>
       <c r="CE79" t="n" s="10">
-        <v>52.78</v>
+        <v>52.781</v>
       </c>
       <c r="CF79" t="n" s="10">
-        <v>53.429</v>
+        <v>53.43</v>
       </c>
       <c r="CG79" t="n" s="10">
         <v>54.61</v>
@@ -26954,19 +26954,19 @@
         <v>56.086</v>
       </c>
       <c r="CI79" t="n" s="10">
-        <v>57.471</v>
+        <v>57.473</v>
       </c>
       <c r="CJ79" t="n" s="10">
-        <v>58.03</v>
+        <v>58.029</v>
       </c>
       <c r="CK79" t="n" s="10">
-        <v>59.481</v>
+        <v>59.48</v>
       </c>
       <c r="CL79" t="n" s="10">
-        <v>59.048</v>
+        <v>59.047</v>
       </c>
       <c r="CM79" t="n" s="10">
-        <v>60.929</v>
+        <v>60.927</v>
       </c>
       <c r="CN79" t="n" s="10">
         <v>61.78</v>
@@ -26981,94 +26981,94 @@
         <v>61.711</v>
       </c>
       <c r="CR79" t="n" s="10">
-        <v>62.694</v>
+        <v>62.693</v>
       </c>
       <c r="CS79" t="n" s="10">
         <v>64.339</v>
       </c>
       <c r="CT79" t="n" s="10">
-        <v>64.812</v>
+        <v>64.811</v>
       </c>
       <c r="CU79" t="n" s="10">
         <v>65.902</v>
       </c>
       <c r="CV79" t="n" s="10">
-        <v>66.905</v>
+        <v>66.904</v>
       </c>
       <c r="CW79" t="n" s="10">
         <v>68.154</v>
       </c>
       <c r="CX79" t="n" s="10">
-        <v>70.608</v>
+        <v>70.61</v>
       </c>
       <c r="CY79" t="n" s="10">
-        <v>70.505</v>
+        <v>70.504</v>
       </c>
       <c r="CZ79" t="n" s="10">
-        <v>70.989</v>
+        <v>70.991</v>
       </c>
       <c r="DA79" t="n" s="10">
-        <v>71.75</v>
+        <v>71.749</v>
       </c>
       <c r="DB79" t="n" s="10">
-        <v>72.817</v>
+        <v>72.816</v>
       </c>
       <c r="DC79" t="n" s="10">
-        <v>75.014</v>
+        <v>75.037</v>
       </c>
       <c r="DD79" t="n" s="10">
-        <v>77.575</v>
+        <v>77.573</v>
       </c>
       <c r="DE79" t="n" s="10">
-        <v>77.22</v>
+        <v>77.18</v>
       </c>
       <c r="DF79" t="n" s="10">
-        <v>77.617</v>
+        <v>77.534</v>
       </c>
       <c r="DG79" t="n" s="10">
-        <v>76.876</v>
+        <v>77.124</v>
       </c>
       <c r="DH79" t="n" s="10">
-        <v>78.042</v>
+        <v>77.92</v>
       </c>
       <c r="DI79" t="n" s="10">
-        <v>80.73</v>
+        <v>80.644</v>
       </c>
       <c r="DJ79" t="n" s="10">
-        <v>81.425</v>
+        <v>81.293</v>
       </c>
       <c r="DK79" t="n" s="10">
-        <v>79.6</v>
+        <v>80.118</v>
       </c>
       <c r="DL79" t="n" s="10">
-        <v>84.817</v>
+        <v>84.251</v>
       </c>
       <c r="DM79" t="n" s="10">
-        <v>86.325</v>
+        <v>86.417</v>
       </c>
       <c r="DN79" t="n" s="10">
-        <v>85.238</v>
+        <v>85.432</v>
       </c>
       <c r="DO79" t="n" s="10">
-        <v>79.725</v>
+        <v>79.875</v>
       </c>
       <c r="DP79" t="n" s="10">
-        <v>60.559</v>
+        <v>59.517</v>
       </c>
       <c r="DQ79" t="n" s="10">
-        <v>65.716</v>
+        <v>66.389</v>
       </c>
       <c r="DR79" t="n" s="10">
-        <v>62.76</v>
+        <v>63.267</v>
       </c>
       <c r="DS79" t="n" s="10">
-        <v>65.698</v>
+        <v>65.415</v>
       </c>
       <c r="DT79" t="n" s="10">
-        <v>69.591</v>
-      </c>
-      <c r="DU79" t="s" s="10">
-        <v>44</v>
+        <v>69.384</v>
+      </c>
+      <c r="DU79" t="n" s="10">
+        <v>84.68</v>
       </c>
       <c r="DV79" t="s" s="10">
         <v>44</v>
@@ -27082,373 +27082,373 @@
         <v>43</v>
       </c>
       <c r="C80" t="n" s="10">
-        <v>-0.191</v>
+        <v>-0.296</v>
       </c>
       <c r="D80" t="n" s="10">
-        <v>-3.343</v>
+        <v>-3.332</v>
       </c>
       <c r="E80" t="n" s="10">
-        <v>-2.36</v>
+        <v>-2.368</v>
       </c>
       <c r="F80" t="n" s="10">
-        <v>0.876</v>
+        <v>0.799</v>
       </c>
       <c r="G80" t="n" s="10">
-        <v>-3.036</v>
+        <v>-3.01</v>
       </c>
       <c r="H80" t="n" s="10">
-        <v>-1.475</v>
+        <v>-1.52</v>
       </c>
       <c r="I80" t="n" s="10">
-        <v>-0.435</v>
+        <v>-0.432</v>
       </c>
       <c r="J80" t="n" s="10">
-        <v>-3.321</v>
+        <v>-3.296</v>
       </c>
       <c r="K80" t="n" s="10">
-        <v>0.634</v>
+        <v>0.605</v>
       </c>
       <c r="L80" t="n" s="10">
-        <v>-0.72</v>
+        <v>-0.693</v>
       </c>
       <c r="M80" t="n" s="10">
-        <v>-1.066</v>
+        <v>-1.046</v>
       </c>
       <c r="N80" t="n" s="10">
-        <v>0.877</v>
+        <v>0.956</v>
       </c>
       <c r="O80" t="n" s="10">
-        <v>0.176</v>
+        <v>0.195</v>
       </c>
       <c r="P80" t="n" s="10">
-        <v>1.403</v>
+        <v>1.434</v>
       </c>
       <c r="Q80" t="n" s="10">
-        <v>0.338</v>
+        <v>0.365</v>
       </c>
       <c r="R80" t="n" s="10">
-        <v>0.083</v>
+        <v>0.061</v>
       </c>
       <c r="S80" t="n" s="10">
-        <v>0.719</v>
+        <v>0.765</v>
       </c>
       <c r="T80" t="n" s="10">
-        <v>1.612</v>
+        <v>1.59</v>
       </c>
       <c r="U80" t="n" s="10">
-        <v>2.35</v>
+        <v>2.301</v>
       </c>
       <c r="V80" t="n" s="10">
-        <v>3.048</v>
+        <v>3.026</v>
       </c>
       <c r="W80" t="n" s="10">
-        <v>2.93</v>
+        <v>2.949</v>
       </c>
       <c r="X80" t="n" s="10">
-        <v>3.263</v>
+        <v>3.216</v>
       </c>
       <c r="Y80" t="n" s="10">
-        <v>3.829</v>
+        <v>3.822</v>
       </c>
       <c r="Z80" t="n" s="10">
-        <v>4.072</v>
+        <v>4.04</v>
       </c>
       <c r="AA80" t="n" s="10">
-        <v>4.413</v>
+        <v>4.301</v>
       </c>
       <c r="AB80" t="n" s="10">
-        <v>4.694</v>
+        <v>4.747</v>
       </c>
       <c r="AC80" t="n" s="10">
-        <v>6.37</v>
+        <v>6.361</v>
       </c>
       <c r="AD80" t="n" s="10">
-        <v>7.421</v>
+        <v>7.373</v>
       </c>
       <c r="AE80" t="n" s="10">
-        <v>7.573</v>
+        <v>7.588</v>
       </c>
       <c r="AF80" t="n" s="10">
-        <v>7.101</v>
+        <v>7.048</v>
       </c>
       <c r="AG80" t="n" s="10">
-        <v>5.747</v>
+        <v>5.762</v>
       </c>
       <c r="AH80" t="n" s="10">
-        <v>4.678</v>
+        <v>4.719</v>
       </c>
       <c r="AI80" t="n" s="10">
-        <v>2.803</v>
+        <v>2.787</v>
       </c>
       <c r="AJ80" t="n" s="10">
-        <v>2.214</v>
+        <v>2.263</v>
       </c>
       <c r="AK80" t="n" s="10">
-        <v>2.49</v>
+        <v>2.531</v>
       </c>
       <c r="AL80" t="n" s="10">
-        <v>2.963</v>
+        <v>3.065</v>
       </c>
       <c r="AM80" t="n" s="10">
-        <v>2.127</v>
+        <v>2.205</v>
       </c>
       <c r="AN80" t="n" s="10">
-        <v>2.519</v>
+        <v>2.508</v>
       </c>
       <c r="AO80" t="n" s="10">
-        <v>0.601</v>
+        <v>0.576</v>
       </c>
       <c r="AP80" t="n" s="10">
-        <v>-0.154</v>
+        <v>-0.216</v>
       </c>
       <c r="AQ80" t="n" s="10">
-        <v>4.076</v>
+        <v>4.085</v>
       </c>
       <c r="AR80" t="n" s="10">
-        <v>6.24</v>
+        <v>6.207</v>
       </c>
       <c r="AS80" t="n" s="10">
-        <v>10.08</v>
+        <v>10.031</v>
       </c>
       <c r="AT80" t="n" s="10">
-        <v>15.384</v>
+        <v>15.346</v>
       </c>
       <c r="AU80" t="n" s="10">
-        <v>21.196</v>
+        <v>21.111</v>
       </c>
       <c r="AV80" t="n" s="10">
-        <v>22.922</v>
+        <v>22.931</v>
       </c>
       <c r="AW80" t="n" s="10">
-        <v>25.031</v>
+        <v>25.025</v>
       </c>
       <c r="AX80" t="n" s="10">
-        <v>24.912</v>
+        <v>24.886</v>
       </c>
       <c r="AY80" t="n" s="10">
-        <v>18.399</v>
+        <v>18.378</v>
       </c>
       <c r="AZ80" t="n" s="10">
-        <v>19.286</v>
+        <v>19.238</v>
       </c>
       <c r="BA80" t="n" s="10">
-        <v>23.676</v>
+        <v>23.673</v>
       </c>
       <c r="BB80" t="n" s="10">
-        <v>25.415</v>
+        <v>25.368</v>
       </c>
       <c r="BC80" t="n" s="10">
-        <v>28.959</v>
+        <v>29.02</v>
       </c>
       <c r="BD80" t="n" s="10">
-        <v>32.051</v>
+        <v>32.055</v>
       </c>
       <c r="BE80" t="n" s="10">
-        <v>27.022</v>
+        <v>27.051</v>
       </c>
       <c r="BF80" t="n" s="10">
-        <v>27.806</v>
+        <v>27.926</v>
       </c>
       <c r="BG80" t="n" s="10">
-        <v>31.509</v>
+        <v>31.456</v>
       </c>
       <c r="BH80" t="n" s="10">
-        <v>27.724</v>
+        <v>27.84</v>
       </c>
       <c r="BI80" t="n" s="10">
-        <v>30.417</v>
+        <v>30.463</v>
       </c>
       <c r="BJ80" t="n" s="10">
-        <v>26.461</v>
+        <v>26.474</v>
       </c>
       <c r="BK80" t="n" s="10">
-        <v>26.305</v>
+        <v>26.389</v>
       </c>
       <c r="BL80" t="n" s="10">
-        <v>29.718</v>
+        <v>29.667</v>
       </c>
       <c r="BM80" t="n" s="10">
-        <v>32.746</v>
+        <v>32.718</v>
       </c>
       <c r="BN80" t="n" s="10">
-        <v>40.05</v>
+        <v>40.02</v>
       </c>
       <c r="BO80" t="n" s="10">
-        <v>39.802</v>
+        <v>39.816</v>
       </c>
       <c r="BP80" t="n" s="10">
-        <v>41.344</v>
+        <v>41.289</v>
       </c>
       <c r="BQ80" t="n" s="10">
-        <v>46.262</v>
+        <v>46.21</v>
       </c>
       <c r="BR80" t="n" s="10">
-        <v>44.19</v>
+        <v>44.15</v>
       </c>
       <c r="BS80" t="n" s="10">
-        <v>44.738</v>
+        <v>44.685</v>
       </c>
       <c r="BT80" t="n" s="10">
-        <v>40.548</v>
+        <v>40.668</v>
       </c>
       <c r="BU80" t="n" s="10">
-        <v>37.439</v>
+        <v>37.437</v>
       </c>
       <c r="BV80" t="n" s="10">
-        <v>30.609</v>
+        <v>30.543</v>
       </c>
       <c r="BW80" t="n" s="10">
-        <v>23.392</v>
+        <v>23.42</v>
       </c>
       <c r="BX80" t="n" s="10">
-        <v>27.835</v>
+        <v>27.786</v>
       </c>
       <c r="BY80" t="n" s="10">
-        <v>33.307</v>
+        <v>33.318</v>
       </c>
       <c r="BZ80" t="n" s="10">
-        <v>36.037</v>
+        <v>36.065</v>
       </c>
       <c r="CA80" t="n" s="10">
-        <v>33.544</v>
+        <v>33.555</v>
       </c>
       <c r="CB80" t="n" s="10">
-        <v>32.359</v>
+        <v>32.399</v>
       </c>
       <c r="CC80" t="n" s="10">
-        <v>34.117</v>
+        <v>34.149</v>
       </c>
       <c r="CD80" t="n" s="10">
-        <v>33.432</v>
+        <v>33.525</v>
       </c>
       <c r="CE80" t="n" s="10">
-        <v>33.733</v>
+        <v>33.773</v>
       </c>
       <c r="CF80" t="n" s="10">
-        <v>31.597</v>
+        <v>31.641</v>
       </c>
       <c r="CG80" t="n" s="10">
-        <v>32.099</v>
+        <v>32.136</v>
       </c>
       <c r="CH80" t="n" s="10">
-        <v>34.527</v>
+        <v>34.526</v>
       </c>
       <c r="CI80" t="n" s="10">
-        <v>39.144</v>
+        <v>39.226</v>
       </c>
       <c r="CJ80" t="n" s="10">
-        <v>42.767</v>
+        <v>42.735</v>
       </c>
       <c r="CK80" t="n" s="10">
-        <v>44.424</v>
+        <v>44.375</v>
       </c>
       <c r="CL80" t="n" s="10">
-        <v>41.654</v>
+        <v>41.612</v>
       </c>
       <c r="CM80" t="n" s="10">
-        <v>40.258</v>
+        <v>40.168</v>
       </c>
       <c r="CN80" t="n" s="10">
-        <v>40.208</v>
+        <v>40.221</v>
       </c>
       <c r="CO80" t="n" s="10">
-        <v>39.229</v>
+        <v>39.22</v>
       </c>
       <c r="CP80" t="n" s="10">
-        <v>43.718</v>
+        <v>43.711</v>
       </c>
       <c r="CQ80" t="n" s="10">
-        <v>45.462</v>
+        <v>45.448</v>
       </c>
       <c r="CR80" t="n" s="10">
-        <v>46.063</v>
+        <v>45.969</v>
       </c>
       <c r="CS80" t="n" s="10">
-        <v>50.687</v>
+        <v>50.569</v>
       </c>
       <c r="CT80" t="n" s="10">
-        <v>53.774</v>
+        <v>54.033</v>
       </c>
       <c r="CU80" t="n" s="10">
-        <v>56.459</v>
+        <v>56.363</v>
       </c>
       <c r="CV80" t="n" s="10">
-        <v>58.009</v>
+        <v>57.804</v>
       </c>
       <c r="CW80" t="n" s="10">
-        <v>58.008</v>
+        <v>57.812</v>
       </c>
       <c r="CX80" t="n" s="10">
-        <v>57.823</v>
+        <v>58.443</v>
       </c>
       <c r="CY80" t="n" s="10">
-        <v>57.272</v>
+        <v>57.018</v>
       </c>
       <c r="CZ80" t="n" s="10">
-        <v>60.41</v>
+        <v>60.376</v>
       </c>
       <c r="DA80" t="n" s="10">
-        <v>57.211</v>
+        <v>57.146</v>
       </c>
       <c r="DB80" t="n" s="10">
-        <v>55.593</v>
+        <v>55.972</v>
       </c>
       <c r="DC80" t="n" s="10">
-        <v>56.82</v>
+        <v>56.715</v>
       </c>
       <c r="DD80" t="n" s="10">
-        <v>54.673</v>
+        <v>54.481</v>
       </c>
       <c r="DE80" t="n" s="10">
-        <v>60.829</v>
+        <v>60.857</v>
       </c>
       <c r="DF80" t="n" s="10">
-        <v>61.018</v>
+        <v>61.77</v>
       </c>
       <c r="DG80" t="n" s="10">
-        <v>59.969</v>
+        <v>58.587</v>
       </c>
       <c r="DH80" t="n" s="10">
-        <v>56.874</v>
+        <v>57.084</v>
       </c>
       <c r="DI80" t="n" s="10">
-        <v>46.134</v>
+        <v>46.356</v>
       </c>
       <c r="DJ80" t="n" s="10">
-        <v>45.365</v>
+        <v>46.886</v>
       </c>
       <c r="DK80" t="n" s="10">
-        <v>53.267</v>
+        <v>50.792</v>
       </c>
       <c r="DL80" t="n" s="10">
-        <v>46.924</v>
+        <v>47.495</v>
       </c>
       <c r="DM80" t="n" s="10">
-        <v>49.462</v>
+        <v>49.934</v>
       </c>
       <c r="DN80" t="n" s="10">
-        <v>46.323</v>
+        <v>47.153</v>
       </c>
       <c r="DO80" t="n" s="10">
-        <v>46.825</v>
+        <v>45.317</v>
       </c>
       <c r="DP80" t="n" s="10">
-        <v>33.831</v>
+        <v>34.328</v>
       </c>
       <c r="DQ80" t="n" s="10">
-        <v>52.802</v>
+        <v>53.667</v>
       </c>
       <c r="DR80" t="n" s="10">
-        <v>57.257</v>
+        <v>57.564</v>
       </c>
       <c r="DS80" t="n" s="10">
-        <v>57.183</v>
+        <v>56.692</v>
       </c>
       <c r="DT80" t="n" s="10">
-        <v>52.266</v>
-      </c>
-      <c r="DU80" t="s" s="10">
-        <v>44</v>
+        <v>50.701</v>
+      </c>
+      <c r="DU80" t="n" s="10">
+        <v>40.735</v>
       </c>
       <c r="DV80" t="s" s="10">
         <v>44</v>
@@ -27467,7 +27467,7 @@
         <v>43</v>
       </c>
       <c r="C82" t="n" s="10">
-        <v>30.69</v>
+        <v>30.72</v>
       </c>
       <c r="D82" t="n" s="10">
         <v>29.49</v>
@@ -27476,13 +27476,13 @@
         <v>29.82</v>
       </c>
       <c r="F82" t="n" s="10">
-        <v>30.55</v>
+        <v>30.58</v>
       </c>
       <c r="G82" t="n" s="10">
-        <v>30.16</v>
+        <v>30.15</v>
       </c>
       <c r="H82" t="n" s="10">
-        <v>30.07</v>
+        <v>30.08</v>
       </c>
       <c r="I82" t="n" s="10">
         <v>29.69</v>
@@ -27500,130 +27500,130 @@
         <v>27.49</v>
       </c>
       <c r="N82" t="n" s="10">
-        <v>27.82</v>
+        <v>27.8</v>
       </c>
       <c r="O82" t="n" s="10">
-        <v>28.88</v>
+        <v>28.87</v>
       </c>
       <c r="P82" t="n" s="10">
         <v>30.03</v>
       </c>
       <c r="Q82" t="n" s="10">
-        <v>30.3</v>
+        <v>30.29</v>
       </c>
       <c r="R82" t="n" s="10">
-        <v>30.93</v>
+        <v>30.94</v>
       </c>
       <c r="S82" t="n" s="10">
-        <v>31.3</v>
+        <v>31.28</v>
       </c>
       <c r="T82" t="n" s="10">
-        <v>31.96</v>
+        <v>31.97</v>
       </c>
       <c r="U82" t="n" s="10">
-        <v>32.53</v>
+        <v>32.54</v>
       </c>
       <c r="V82" t="n" s="10">
-        <v>32.86</v>
+        <v>32.87</v>
       </c>
       <c r="W82" t="n" s="10">
-        <v>33.07</v>
+        <v>33.06</v>
       </c>
       <c r="X82" t="n" s="10">
-        <v>33.65</v>
+        <v>33.67</v>
       </c>
       <c r="Y82" t="n" s="10">
         <v>34.16</v>
       </c>
       <c r="Z82" t="n" s="10">
-        <v>35.47</v>
+        <v>35.48</v>
       </c>
       <c r="AA82" t="n" s="10">
-        <v>36.75</v>
+        <v>36.78</v>
       </c>
       <c r="AB82" t="n" s="10">
-        <v>37.36</v>
+        <v>37.34</v>
       </c>
       <c r="AC82" t="n" s="10">
-        <v>39.25</v>
+        <v>39.24</v>
       </c>
       <c r="AD82" t="n" s="10">
-        <v>40.33</v>
+        <v>40.34</v>
       </c>
       <c r="AE82" t="n" s="10">
-        <v>41.02</v>
+        <v>41.01</v>
       </c>
       <c r="AF82" t="n" s="10">
-        <v>41.49</v>
+        <v>41.51</v>
       </c>
       <c r="AG82" t="n" s="10">
-        <v>40.94</v>
+        <v>40.92</v>
       </c>
       <c r="AH82" t="n" s="10">
-        <v>40.76</v>
+        <v>40.75</v>
       </c>
       <c r="AI82" t="n" s="10">
         <v>41.08</v>
       </c>
       <c r="AJ82" t="n" s="10">
-        <v>42.27</v>
+        <v>42.26</v>
       </c>
       <c r="AK82" t="n" s="10">
-        <v>43.75</v>
+        <v>43.74</v>
       </c>
       <c r="AL82" t="n" s="10">
-        <v>44.44</v>
+        <v>44.41</v>
       </c>
       <c r="AM82" t="n" s="10">
-        <v>46.71</v>
+        <v>46.69</v>
       </c>
       <c r="AN82" t="n" s="10">
-        <v>48.45</v>
+        <v>48.46</v>
       </c>
       <c r="AO82" t="n" s="10">
-        <v>49.77</v>
+        <v>49.78</v>
       </c>
       <c r="AP82" t="n" s="10">
-        <v>52.17</v>
+        <v>52.19</v>
       </c>
       <c r="AQ82" t="n" s="10">
         <v>52.19</v>
       </c>
       <c r="AR82" t="n" s="10">
-        <v>52.21</v>
+        <v>52.22</v>
       </c>
       <c r="AS82" t="n" s="10">
-        <v>52.34</v>
+        <v>52.36</v>
       </c>
       <c r="AT82" t="n" s="10">
-        <v>52.11</v>
+        <v>52.12</v>
       </c>
       <c r="AU82" t="n" s="10">
-        <v>53.1</v>
+        <v>53.13</v>
       </c>
       <c r="AV82" t="n" s="10">
         <v>54.32</v>
       </c>
       <c r="AW82" t="n" s="10">
-        <v>54.98</v>
+        <v>54.97</v>
       </c>
       <c r="AX82" t="n" s="10">
-        <v>55.49</v>
+        <v>55.5</v>
       </c>
       <c r="AY82" t="n" s="10">
         <v>54.68</v>
       </c>
       <c r="AZ82" t="n" s="10">
-        <v>54.25</v>
+        <v>54.26</v>
       </c>
       <c r="BA82" t="n" s="10">
         <v>55.91</v>
       </c>
       <c r="BB82" t="n" s="10">
-        <v>57.5</v>
+        <v>57.51</v>
       </c>
       <c r="BC82" t="n" s="10">
-        <v>59.71</v>
+        <v>59.69</v>
       </c>
       <c r="BD82" t="n" s="10">
         <v>61.84</v>
@@ -27632,208 +27632,208 @@
         <v>61.35</v>
       </c>
       <c r="BF82" t="n" s="10">
-        <v>61.71</v>
+        <v>61.68</v>
       </c>
       <c r="BG82" t="n" s="10">
         <v>62.98</v>
       </c>
       <c r="BH82" t="n" s="10">
-        <v>64.01</v>
+        <v>63.98</v>
       </c>
       <c r="BI82" t="n" s="10">
-        <v>66.79</v>
+        <v>66.77</v>
       </c>
       <c r="BJ82" t="n" s="10">
         <v>67.94</v>
       </c>
       <c r="BK82" t="n" s="10">
-        <v>70.27</v>
+        <v>70.24</v>
       </c>
       <c r="BL82" t="n" s="10">
-        <v>72.46</v>
+        <v>72.47</v>
       </c>
       <c r="BM82" t="n" s="10">
-        <v>74.46</v>
+        <v>74.5</v>
       </c>
       <c r="BN82" t="n" s="10">
-        <v>78.38</v>
+        <v>78.4</v>
       </c>
       <c r="BO82" t="n" s="10">
-        <v>78.94</v>
+        <v>78.85</v>
       </c>
       <c r="BP82" t="n" s="10">
-        <v>80.22</v>
+        <v>80.04</v>
       </c>
       <c r="BQ82" t="n" s="10">
-        <v>81.13</v>
+        <v>81.52</v>
       </c>
       <c r="BR82" t="n" s="10">
-        <v>82.15</v>
+        <v>82.26</v>
       </c>
       <c r="BS82" t="n" s="10">
-        <v>84.46</v>
+        <v>84.16</v>
       </c>
       <c r="BT82" t="n" s="10">
-        <v>83.65</v>
+        <v>83.19</v>
       </c>
       <c r="BU82" t="n" s="10">
-        <v>81.1</v>
+        <v>81.78</v>
       </c>
       <c r="BV82" t="n" s="10">
-        <v>78.02</v>
+        <v>78.2</v>
       </c>
       <c r="BW82" t="n" s="10">
-        <v>70.27</v>
+        <v>69.87</v>
       </c>
       <c r="BX82" t="n" s="10">
-        <v>68.23</v>
+        <v>67.97</v>
       </c>
       <c r="BY82" t="n" s="10">
-        <v>69.67</v>
+        <v>70.05</v>
       </c>
       <c r="BZ82" t="n" s="10">
-        <v>72.81</v>
+        <v>72.91</v>
       </c>
       <c r="CA82" t="n" s="10">
-        <v>75.99</v>
+        <v>75.83</v>
       </c>
       <c r="CB82" t="n" s="10">
-        <v>79.78</v>
+        <v>79.73</v>
       </c>
       <c r="CC82" t="n" s="10">
-        <v>81.33</v>
+        <v>81.36</v>
       </c>
       <c r="CD82" t="n" s="10">
-        <v>83.64</v>
+        <v>83.63</v>
       </c>
       <c r="CE82" t="n" s="10">
-        <v>85.71</v>
+        <v>85.7</v>
       </c>
       <c r="CF82" t="n" s="10">
-        <v>86.29</v>
+        <v>86.27</v>
       </c>
       <c r="CG82" t="n" s="10">
-        <v>87.3</v>
+        <v>87.29</v>
       </c>
       <c r="CH82" t="n" s="10">
         <v>88.28</v>
       </c>
       <c r="CI82" t="n" s="10">
-        <v>89.31</v>
+        <v>89.28</v>
       </c>
       <c r="CJ82" t="n" s="10">
-        <v>89.7</v>
+        <v>89.71</v>
       </c>
       <c r="CK82" t="n" s="10">
-        <v>90.13</v>
+        <v>90.14</v>
       </c>
       <c r="CL82" t="n" s="10">
-        <v>89.36</v>
+        <v>89.38</v>
       </c>
       <c r="CM82" t="n" s="10">
-        <v>89.42</v>
+        <v>89.45</v>
       </c>
       <c r="CN82" t="n" s="10">
-        <v>90.12</v>
+        <v>90.11</v>
       </c>
       <c r="CO82" t="n" s="10">
         <v>90.9</v>
       </c>
       <c r="CP82" t="n" s="10">
-        <v>92.29</v>
+        <v>92.3</v>
       </c>
       <c r="CQ82" t="n" s="10">
-        <v>93.24</v>
+        <v>93.25</v>
       </c>
       <c r="CR82" t="n" s="10">
-        <v>93.99</v>
+        <v>94.0</v>
       </c>
       <c r="CS82" t="n" s="10">
-        <v>95.68</v>
+        <v>95.69</v>
       </c>
       <c r="CT82" t="n" s="10">
-        <v>97.43</v>
+        <v>97.44</v>
       </c>
       <c r="CU82" t="n" s="10">
         <v>98.76</v>
       </c>
       <c r="CV82" t="n" s="10">
-        <v>99.81</v>
+        <v>99.83</v>
       </c>
       <c r="CW82" t="n" s="10">
         <v>100.64</v>
       </c>
       <c r="CX82" t="n" s="10">
-        <v>100.78</v>
+        <v>100.76</v>
       </c>
       <c r="CY82" t="n" s="10">
-        <v>100.84</v>
+        <v>100.85</v>
       </c>
       <c r="CZ82" t="n" s="10">
-        <v>102.32</v>
+        <v>102.28</v>
       </c>
       <c r="DA82" t="n" s="10">
-        <v>102.46</v>
+        <v>102.45</v>
       </c>
       <c r="DB82" t="n" s="10">
-        <v>103.66</v>
+        <v>103.65</v>
       </c>
       <c r="DC82" t="n" s="10">
-        <v>105.7</v>
+        <v>105.66</v>
       </c>
       <c r="DD82" t="n" s="10">
-        <v>106.52</v>
+        <v>106.54</v>
       </c>
       <c r="DE82" t="n" s="10">
-        <v>108.61</v>
+        <v>108.67</v>
       </c>
       <c r="DF82" t="n" s="10">
-        <v>110.14</v>
+        <v>110.25</v>
       </c>
       <c r="DG82" t="n" s="10">
-        <v>110.18</v>
+        <v>109.95</v>
       </c>
       <c r="DH82" t="n" s="10">
-        <v>110.89</v>
+        <v>110.96</v>
       </c>
       <c r="DI82" t="n" s="10">
-        <v>109.84</v>
+        <v>109.98</v>
       </c>
       <c r="DJ82" t="n" s="10">
-        <v>109.68</v>
+        <v>109.87</v>
       </c>
       <c r="DK82" t="n" s="10">
-        <v>111.89</v>
+        <v>111.48</v>
       </c>
       <c r="DL82" t="n" s="10">
-        <v>111.31</v>
+        <v>111.3</v>
       </c>
       <c r="DM82" t="n" s="10">
-        <v>112.36</v>
+        <v>112.59</v>
       </c>
       <c r="DN82" t="n" s="10">
-        <v>109.95</v>
+        <v>110.2</v>
       </c>
       <c r="DO82" t="n" s="10">
-        <v>107.39</v>
+        <v>107.01</v>
       </c>
       <c r="DP82" t="n" s="10">
-        <v>87.53</v>
+        <v>87.15</v>
       </c>
       <c r="DQ82" t="n" s="10">
-        <v>102.55</v>
+        <v>103.29</v>
       </c>
       <c r="DR82" t="n" s="10">
-        <v>104.81</v>
+        <v>105.06</v>
       </c>
       <c r="DS82" t="n" s="10">
-        <v>107.25</v>
+        <v>106.81</v>
       </c>
       <c r="DT82" t="n" s="10">
-        <v>109.79</v>
-      </c>
-      <c r="DU82" t="s" s="10">
-        <v>44</v>
+        <v>109.08</v>
+      </c>
+      <c r="DU82" t="n" s="10">
+        <v>109.5</v>
       </c>
       <c r="DV82" t="s" s="10">
         <v>44</v>
@@ -27847,7 +27847,7 @@
         <v>43</v>
       </c>
       <c r="C83" t="n" s="10">
-        <v>31.86</v>
+        <v>31.89</v>
       </c>
       <c r="D83" t="n" s="10">
         <v>30.26</v>
@@ -27856,13 +27856,13 @@
         <v>30.54</v>
       </c>
       <c r="F83" t="n" s="10">
-        <v>31.55</v>
+        <v>31.58</v>
       </c>
       <c r="G83" t="n" s="10">
-        <v>31.08</v>
+        <v>31.07</v>
       </c>
       <c r="H83" t="n" s="10">
-        <v>31.03</v>
+        <v>31.04</v>
       </c>
       <c r="I83" t="n" s="10">
         <v>30.72</v>
@@ -27880,106 +27880,106 @@
         <v>28.03</v>
       </c>
       <c r="N83" t="n" s="10">
-        <v>28.48</v>
+        <v>28.46</v>
       </c>
       <c r="O83" t="n" s="10">
-        <v>29.74</v>
+        <v>29.73</v>
       </c>
       <c r="P83" t="n" s="10">
         <v>31.17</v>
       </c>
       <c r="Q83" t="n" s="10">
-        <v>31.5</v>
+        <v>31.49</v>
       </c>
       <c r="R83" t="n" s="10">
-        <v>32.33</v>
+        <v>32.34</v>
       </c>
       <c r="S83" t="n" s="10">
-        <v>32.49</v>
+        <v>32.47</v>
       </c>
       <c r="T83" t="n" s="10">
-        <v>33.34</v>
+        <v>33.35</v>
       </c>
       <c r="U83" t="n" s="10">
-        <v>33.88</v>
+        <v>33.89</v>
       </c>
       <c r="V83" t="n" s="10">
-        <v>34.12</v>
+        <v>34.13</v>
       </c>
       <c r="W83" t="n" s="10">
-        <v>34.45</v>
+        <v>34.44</v>
       </c>
       <c r="X83" t="n" s="10">
-        <v>34.96</v>
+        <v>34.98</v>
       </c>
       <c r="Y83" t="n" s="10">
         <v>35.54</v>
       </c>
       <c r="Z83" t="n" s="10">
-        <v>36.86</v>
+        <v>36.87</v>
       </c>
       <c r="AA83" t="n" s="10">
-        <v>38.15</v>
+        <v>38.18</v>
       </c>
       <c r="AB83" t="n" s="10">
-        <v>38.53</v>
+        <v>38.51</v>
       </c>
       <c r="AC83" t="n" s="10">
         <v>40.6</v>
       </c>
       <c r="AD83" t="n" s="10">
-        <v>41.74</v>
+        <v>41.75</v>
       </c>
       <c r="AE83" t="n" s="10">
-        <v>42.33</v>
+        <v>42.32</v>
       </c>
       <c r="AF83" t="n" s="10">
-        <v>43.02</v>
+        <v>43.03</v>
       </c>
       <c r="AG83" t="n" s="10">
-        <v>42.25</v>
+        <v>42.24</v>
       </c>
       <c r="AH83" t="n" s="10">
-        <v>42.22</v>
+        <v>42.21</v>
       </c>
       <c r="AI83" t="n" s="10">
         <v>42.75</v>
       </c>
       <c r="AJ83" t="n" s="10">
-        <v>43.9</v>
+        <v>43.89</v>
       </c>
       <c r="AK83" t="n" s="10">
-        <v>45.46</v>
+        <v>45.45</v>
       </c>
       <c r="AL83" t="n" s="10">
-        <v>46.09</v>
+        <v>46.06</v>
       </c>
       <c r="AM83" t="n" s="10">
-        <v>48.35</v>
+        <v>48.33</v>
       </c>
       <c r="AN83" t="n" s="10">
-        <v>50.28</v>
+        <v>50.29</v>
       </c>
       <c r="AO83" t="n" s="10">
-        <v>51.75</v>
+        <v>51.76</v>
       </c>
       <c r="AP83" t="n" s="10">
-        <v>54.41</v>
+        <v>54.43</v>
       </c>
       <c r="AQ83" t="n" s="10">
         <v>54.63</v>
       </c>
       <c r="AR83" t="n" s="10">
-        <v>54.56</v>
+        <v>54.57</v>
       </c>
       <c r="AS83" t="n" s="10">
-        <v>54.66</v>
+        <v>54.68</v>
       </c>
       <c r="AT83" t="n" s="10">
-        <v>54.1</v>
+        <v>54.11</v>
       </c>
       <c r="AU83" t="n" s="10">
-        <v>54.85</v>
+        <v>54.88</v>
       </c>
       <c r="AV83" t="n" s="10">
         <v>56.09</v>
@@ -27988,22 +27988,22 @@
         <v>56.6</v>
       </c>
       <c r="AX83" t="n" s="10">
-        <v>57.33</v>
+        <v>57.34</v>
       </c>
       <c r="AY83" t="n" s="10">
-        <v>56.69</v>
+        <v>56.7</v>
       </c>
       <c r="AZ83" t="n" s="10">
-        <v>56.15</v>
+        <v>56.16</v>
       </c>
       <c r="BA83" t="n" s="10">
         <v>58.09</v>
       </c>
       <c r="BB83" t="n" s="10">
-        <v>59.55</v>
+        <v>59.56</v>
       </c>
       <c r="BC83" t="n" s="10">
-        <v>61.55</v>
+        <v>61.53</v>
       </c>
       <c r="BD83" t="n" s="10">
         <v>63.75</v>
@@ -28012,208 +28012,208 @@
         <v>62.99</v>
       </c>
       <c r="BF83" t="n" s="10">
-        <v>63.4</v>
+        <v>63.37</v>
       </c>
       <c r="BG83" t="n" s="10">
-        <v>64.87</v>
+        <v>64.88</v>
       </c>
       <c r="BH83" t="n" s="10">
-        <v>66.17</v>
+        <v>66.14</v>
       </c>
       <c r="BI83" t="n" s="10">
-        <v>69.11</v>
+        <v>69.09</v>
       </c>
       <c r="BJ83" t="n" s="10">
         <v>70.28</v>
       </c>
       <c r="BK83" t="n" s="10">
-        <v>72.64</v>
+        <v>72.61</v>
       </c>
       <c r="BL83" t="n" s="10">
-        <v>74.74</v>
+        <v>74.75</v>
       </c>
       <c r="BM83" t="n" s="10">
-        <v>76.99</v>
+        <v>77.04</v>
       </c>
       <c r="BN83" t="n" s="10">
-        <v>81.15</v>
+        <v>81.18</v>
       </c>
       <c r="BO83" t="n" s="10">
-        <v>81.95</v>
+        <v>81.85</v>
       </c>
       <c r="BP83" t="n" s="10">
-        <v>83.29</v>
+        <v>83.07</v>
       </c>
       <c r="BQ83" t="n" s="10">
-        <v>84.17</v>
+        <v>84.64</v>
       </c>
       <c r="BR83" t="n" s="10">
-        <v>85.61</v>
+        <v>85.74</v>
       </c>
       <c r="BS83" t="n" s="10">
-        <v>87.87</v>
+        <v>87.51</v>
       </c>
       <c r="BT83" t="n" s="10">
-        <v>86.85</v>
+        <v>86.29</v>
       </c>
       <c r="BU83" t="n" s="10">
-        <v>83.58</v>
+        <v>84.4</v>
       </c>
       <c r="BV83" t="n" s="10">
-        <v>79.59</v>
+        <v>79.8</v>
       </c>
       <c r="BW83" t="n" s="10">
-        <v>70.48</v>
+        <v>69.99</v>
       </c>
       <c r="BX83" t="n" s="10">
-        <v>67.98</v>
+        <v>67.66</v>
       </c>
       <c r="BY83" t="n" s="10">
-        <v>69.83</v>
+        <v>70.29</v>
       </c>
       <c r="BZ83" t="n" s="10">
-        <v>73.65</v>
+        <v>73.77</v>
       </c>
       <c r="CA83" t="n" s="10">
-        <v>77.14</v>
+        <v>76.94</v>
       </c>
       <c r="CB83" t="n" s="10">
-        <v>81.33</v>
+        <v>81.27</v>
       </c>
       <c r="CC83" t="n" s="10">
-        <v>83.01</v>
+        <v>83.04</v>
       </c>
       <c r="CD83" t="n" s="10">
         <v>85.65</v>
       </c>
       <c r="CE83" t="n" s="10">
-        <v>87.93</v>
+        <v>87.91</v>
       </c>
       <c r="CF83" t="n" s="10">
-        <v>88.57</v>
+        <v>88.55</v>
       </c>
       <c r="CG83" t="n" s="10">
-        <v>89.5</v>
+        <v>89.49</v>
       </c>
       <c r="CH83" t="n" s="10">
         <v>90.29</v>
       </c>
       <c r="CI83" t="n" s="10">
-        <v>91.44</v>
+        <v>91.41</v>
       </c>
       <c r="CJ83" t="n" s="10">
-        <v>91.71</v>
+        <v>91.72</v>
       </c>
       <c r="CK83" t="n" s="10">
-        <v>92.02</v>
+        <v>92.03</v>
       </c>
       <c r="CL83" t="n" s="10">
-        <v>90.97</v>
+        <v>90.99</v>
       </c>
       <c r="CM83" t="n" s="10">
-        <v>90.99</v>
+        <v>91.02</v>
       </c>
       <c r="CN83" t="n" s="10">
-        <v>91.49</v>
+        <v>91.48</v>
       </c>
       <c r="CO83" t="n" s="10">
         <v>92.04</v>
       </c>
       <c r="CP83" t="n" s="10">
-        <v>93.67</v>
+        <v>93.68</v>
       </c>
       <c r="CQ83" t="n" s="10">
-        <v>94.22</v>
+        <v>94.23</v>
       </c>
       <c r="CR83" t="n" s="10">
-        <v>94.9</v>
+        <v>94.91</v>
       </c>
       <c r="CS83" t="n" s="10">
-        <v>96.56</v>
+        <v>96.57</v>
       </c>
       <c r="CT83" t="n" s="10">
-        <v>98.26</v>
+        <v>98.27</v>
       </c>
       <c r="CU83" t="n" s="10">
         <v>99.34</v>
       </c>
       <c r="CV83" t="n" s="10">
-        <v>100.03</v>
+        <v>100.05</v>
       </c>
       <c r="CW83" t="n" s="10">
         <v>100.6</v>
       </c>
       <c r="CX83" t="n" s="10">
-        <v>100.13</v>
+        <v>100.11</v>
       </c>
       <c r="CY83" t="n" s="10">
-        <v>100.28</v>
+        <v>100.29</v>
       </c>
       <c r="CZ83" t="n" s="10">
-        <v>101.98</v>
+        <v>101.95</v>
       </c>
       <c r="DA83" t="n" s="10">
-        <v>102.1</v>
+        <v>102.09</v>
       </c>
       <c r="DB83" t="n" s="10">
-        <v>103.36</v>
+        <v>103.35</v>
       </c>
       <c r="DC83" t="n" s="10">
-        <v>105.57</v>
+        <v>105.52</v>
       </c>
       <c r="DD83" t="n" s="10">
-        <v>106.13</v>
+        <v>106.15</v>
       </c>
       <c r="DE83" t="n" s="10">
-        <v>108.48</v>
+        <v>108.55</v>
       </c>
       <c r="DF83" t="n" s="10">
-        <v>110.38</v>
+        <v>110.51</v>
       </c>
       <c r="DG83" t="n" s="10">
-        <v>110.14</v>
+        <v>109.85</v>
       </c>
       <c r="DH83" t="n" s="10">
-        <v>111.03</v>
+        <v>111.11</v>
       </c>
       <c r="DI83" t="n" s="10">
-        <v>109.21</v>
+        <v>109.38</v>
       </c>
       <c r="DJ83" t="n" s="10">
-        <v>108.41</v>
+        <v>108.67</v>
       </c>
       <c r="DK83" t="n" s="10">
-        <v>111.05</v>
+        <v>110.58</v>
       </c>
       <c r="DL83" t="n" s="10">
-        <v>109.84</v>
+        <v>109.69</v>
       </c>
       <c r="DM83" t="n" s="10">
-        <v>111.07</v>
+        <v>111.41</v>
       </c>
       <c r="DN83" t="n" s="10">
-        <v>108.77</v>
+        <v>109.15</v>
       </c>
       <c r="DO83" t="n" s="10">
-        <v>106.39</v>
+        <v>106.03</v>
       </c>
       <c r="DP83" t="n" s="10">
-        <v>86.47</v>
+        <v>85.66</v>
       </c>
       <c r="DQ83" t="n" s="10">
-        <v>103.35</v>
+        <v>104.43</v>
       </c>
       <c r="DR83" t="n" s="10">
-        <v>106.67</v>
+        <v>107.09</v>
       </c>
       <c r="DS83" t="n" s="10">
-        <v>109.75</v>
+        <v>109.34</v>
       </c>
       <c r="DT83" t="n" s="10">
-        <v>112.73</v>
-      </c>
-      <c r="DU83" t="s" s="10">
-        <v>44</v>
+        <v>111.19</v>
+      </c>
+      <c r="DU83" t="n" s="10">
+        <v>110.34</v>
       </c>
       <c r="DV83" t="s" s="10">
         <v>44</v>
@@ -28227,22 +28227,22 @@
         <v>43</v>
       </c>
       <c r="C84" t="n" s="10">
-        <v>25.11</v>
+        <v>25.14</v>
       </c>
       <c r="D84" t="n" s="10">
         <v>26.03</v>
       </c>
       <c r="E84" t="n" s="10">
-        <v>26.65</v>
+        <v>26.66</v>
       </c>
       <c r="F84" t="n" s="10">
-        <v>25.88</v>
+        <v>25.91</v>
       </c>
       <c r="G84" t="n" s="10">
-        <v>25.88</v>
+        <v>25.87</v>
       </c>
       <c r="H84" t="n" s="10">
-        <v>25.58</v>
+        <v>25.6</v>
       </c>
       <c r="I84" t="n" s="10">
         <v>24.8</v>
@@ -28251,7 +28251,7 @@
         <v>25.36</v>
       </c>
       <c r="K84" t="n" s="10">
-        <v>24.58</v>
+        <v>24.59</v>
       </c>
       <c r="L84" t="n" s="10">
         <v>24.77</v>
@@ -28260,13 +28260,13 @@
         <v>25.16</v>
       </c>
       <c r="N84" t="n" s="10">
-        <v>24.87</v>
+        <v>24.85</v>
       </c>
       <c r="O84" t="n" s="10">
-        <v>24.93</v>
+        <v>24.92</v>
       </c>
       <c r="P84" t="n" s="10">
-        <v>24.66</v>
+        <v>24.65</v>
       </c>
       <c r="Q84" t="n" s="10">
         <v>24.61</v>
@@ -28275,91 +28275,91 @@
         <v>24.22</v>
       </c>
       <c r="S84" t="n" s="10">
-        <v>25.7</v>
+        <v>25.68</v>
       </c>
       <c r="T84" t="n" s="10">
-        <v>25.35</v>
+        <v>25.36</v>
       </c>
       <c r="U84" t="n" s="10">
-        <v>26.1</v>
+        <v>26.11</v>
       </c>
       <c r="V84" t="n" s="10">
-        <v>26.93</v>
+        <v>26.94</v>
       </c>
       <c r="W84" t="n" s="10">
-        <v>26.53</v>
+        <v>26.52</v>
       </c>
       <c r="X84" t="n" s="10">
-        <v>27.44</v>
+        <v>27.45</v>
       </c>
       <c r="Y84" t="n" s="10">
-        <v>27.63</v>
+        <v>27.64</v>
       </c>
       <c r="Z84" t="n" s="10">
-        <v>28.89</v>
+        <v>28.9</v>
       </c>
       <c r="AA84" t="n" s="10">
-        <v>30.13</v>
+        <v>30.17</v>
       </c>
       <c r="AB84" t="n" s="10">
-        <v>31.93</v>
+        <v>31.91</v>
       </c>
       <c r="AC84" t="n" s="10">
         <v>32.91</v>
       </c>
       <c r="AD84" t="n" s="10">
-        <v>33.73</v>
+        <v>33.74</v>
       </c>
       <c r="AE84" t="n" s="10">
         <v>34.94</v>
       </c>
       <c r="AF84" t="n" s="10">
-        <v>34.32</v>
+        <v>34.34</v>
       </c>
       <c r="AG84" t="n" s="10">
-        <v>34.83</v>
+        <v>34.82</v>
       </c>
       <c r="AH84" t="n" s="10">
-        <v>33.93</v>
+        <v>33.91</v>
       </c>
       <c r="AI84" t="n" s="10">
-        <v>33.15</v>
+        <v>33.16</v>
       </c>
       <c r="AJ84" t="n" s="10">
-        <v>34.58</v>
+        <v>34.57</v>
       </c>
       <c r="AK84" t="n" s="10">
-        <v>35.68</v>
+        <v>35.67</v>
       </c>
       <c r="AL84" t="n" s="10">
-        <v>36.66</v>
+        <v>36.63</v>
       </c>
       <c r="AM84" t="n" s="10">
-        <v>39.02</v>
+        <v>38.99</v>
       </c>
       <c r="AN84" t="n" s="10">
         <v>39.82</v>
       </c>
       <c r="AO84" t="n" s="10">
-        <v>40.43</v>
+        <v>40.44</v>
       </c>
       <c r="AP84" t="n" s="10">
-        <v>41.52</v>
+        <v>41.54</v>
       </c>
       <c r="AQ84" t="n" s="10">
         <v>40.54</v>
       </c>
       <c r="AR84" t="n" s="10">
-        <v>41.02</v>
+        <v>41.03</v>
       </c>
       <c r="AS84" t="n" s="10">
-        <v>41.33</v>
+        <v>41.35</v>
       </c>
       <c r="AT84" t="n" s="10">
-        <v>42.7</v>
+        <v>42.71</v>
       </c>
       <c r="AU84" t="n" s="10">
-        <v>44.9</v>
+        <v>44.93</v>
       </c>
       <c r="AV84" t="n" s="10">
         <v>46.03</v>
@@ -28368,130 +28368,130 @@
         <v>47.4</v>
       </c>
       <c r="AX84" t="n" s="10">
-        <v>46.85</v>
+        <v>46.86</v>
       </c>
       <c r="AY84" t="n" s="10">
-        <v>45.2</v>
+        <v>45.21</v>
       </c>
       <c r="AZ84" t="n" s="10">
-        <v>45.34</v>
+        <v>45.35</v>
       </c>
       <c r="BA84" t="n" s="10">
         <v>45.65</v>
       </c>
       <c r="BB84" t="n" s="10">
-        <v>47.85</v>
+        <v>47.87</v>
       </c>
       <c r="BC84" t="n" s="10">
-        <v>51.04</v>
+        <v>51.02</v>
       </c>
       <c r="BD84" t="n" s="10">
-        <v>52.88</v>
+        <v>52.87</v>
       </c>
       <c r="BE84" t="n" s="10">
         <v>53.65</v>
       </c>
       <c r="BF84" t="n" s="10">
-        <v>53.74</v>
+        <v>53.71</v>
       </c>
       <c r="BG84" t="n" s="10">
-        <v>54.06</v>
+        <v>54.07</v>
       </c>
       <c r="BH84" t="n" s="10">
-        <v>53.86</v>
+        <v>53.83</v>
       </c>
       <c r="BI84" t="n" s="10">
-        <v>55.9</v>
+        <v>55.89</v>
       </c>
       <c r="BJ84" t="n" s="10">
         <v>56.96</v>
       </c>
       <c r="BK84" t="n" s="10">
-        <v>59.14</v>
+        <v>59.12</v>
       </c>
       <c r="BL84" t="n" s="10">
-        <v>61.73</v>
+        <v>61.75</v>
       </c>
       <c r="BM84" t="n" s="10">
-        <v>62.54</v>
+        <v>62.55</v>
       </c>
       <c r="BN84" t="n" s="10">
-        <v>65.36</v>
+        <v>65.37</v>
       </c>
       <c r="BO84" t="n" s="10">
         <v>64.78</v>
       </c>
       <c r="BP84" t="n" s="10">
-        <v>65.79</v>
+        <v>65.81</v>
       </c>
       <c r="BQ84" t="n" s="10">
-        <v>66.84</v>
+        <v>66.86</v>
       </c>
       <c r="BR84" t="n" s="10">
-        <v>65.89</v>
+        <v>65.9</v>
       </c>
       <c r="BS84" t="n" s="10">
-        <v>68.42</v>
+        <v>68.44</v>
       </c>
       <c r="BT84" t="n" s="10">
-        <v>68.64</v>
+        <v>68.61</v>
       </c>
       <c r="BU84" t="n" s="10">
-        <v>69.46</v>
+        <v>69.45</v>
       </c>
       <c r="BV84" t="n" s="10">
-        <v>70.64</v>
+        <v>70.65</v>
       </c>
       <c r="BW84" t="n" s="10">
         <v>69.22</v>
       </c>
       <c r="BX84" t="n" s="10">
-        <v>69.31</v>
+        <v>69.33</v>
       </c>
       <c r="BY84" t="n" s="10">
         <v>68.85</v>
       </c>
       <c r="BZ84" t="n" s="10">
-        <v>68.83</v>
+        <v>68.82</v>
       </c>
       <c r="CA84" t="n" s="10">
         <v>70.56</v>
       </c>
       <c r="CB84" t="n" s="10">
-        <v>72.48</v>
+        <v>72.46</v>
       </c>
       <c r="CC84" t="n" s="10">
-        <v>73.45</v>
+        <v>73.44</v>
       </c>
       <c r="CD84" t="n" s="10">
-        <v>74.19</v>
+        <v>74.16</v>
       </c>
       <c r="CE84" t="n" s="10">
-        <v>75.32</v>
+        <v>75.3</v>
       </c>
       <c r="CF84" t="n" s="10">
-        <v>75.6</v>
+        <v>75.58</v>
       </c>
       <c r="CG84" t="n" s="10">
-        <v>76.97</v>
+        <v>76.96</v>
       </c>
       <c r="CH84" t="n" s="10">
         <v>78.82</v>
       </c>
       <c r="CI84" t="n" s="10">
-        <v>79.32</v>
+        <v>79.29</v>
       </c>
       <c r="CJ84" t="n" s="10">
-        <v>80.31</v>
+        <v>80.32</v>
       </c>
       <c r="CK84" t="n" s="10">
-        <v>81.28</v>
+        <v>81.3</v>
       </c>
       <c r="CL84" t="n" s="10">
-        <v>81.9</v>
+        <v>81.91</v>
       </c>
       <c r="CM84" t="n" s="10">
-        <v>82.09</v>
+        <v>82.12</v>
       </c>
       <c r="CN84" t="n" s="10">
         <v>83.75</v>
@@ -28500,100 +28500,100 @@
         <v>85.65</v>
       </c>
       <c r="CP84" t="n" s="10">
-        <v>85.9</v>
+        <v>85.91</v>
       </c>
       <c r="CQ84" t="n" s="10">
         <v>88.71</v>
       </c>
       <c r="CR84" t="n" s="10">
-        <v>89.78</v>
+        <v>89.79</v>
       </c>
       <c r="CS84" t="n" s="10">
         <v>91.62</v>
       </c>
       <c r="CT84" t="n" s="10">
-        <v>93.63</v>
+        <v>93.64</v>
       </c>
       <c r="CU84" t="n" s="10">
         <v>96.08</v>
       </c>
       <c r="CV84" t="n" s="10">
-        <v>98.77</v>
+        <v>98.79</v>
       </c>
       <c r="CW84" t="n" s="10">
         <v>100.84</v>
       </c>
       <c r="CX84" t="n" s="10">
-        <v>103.77</v>
+        <v>103.75</v>
       </c>
       <c r="CY84" t="n" s="10">
-        <v>103.39</v>
+        <v>103.41</v>
       </c>
       <c r="CZ84" t="n" s="10">
-        <v>103.86</v>
+        <v>103.82</v>
       </c>
       <c r="DA84" t="n" s="10">
-        <v>104.09</v>
+        <v>104.08</v>
       </c>
       <c r="DB84" t="n" s="10">
-        <v>105.03</v>
+        <v>105.02</v>
       </c>
       <c r="DC84" t="n" s="10">
-        <v>106.34</v>
+        <v>106.31</v>
       </c>
       <c r="DD84" t="n" s="10">
-        <v>108.31</v>
+        <v>108.33</v>
       </c>
       <c r="DE84" t="n" s="10">
-        <v>109.23</v>
+        <v>109.24</v>
       </c>
       <c r="DF84" t="n" s="10">
-        <v>109.09</v>
+        <v>109.11</v>
       </c>
       <c r="DG84" t="n" s="10">
-        <v>110.41</v>
+        <v>110.43</v>
       </c>
       <c r="DH84" t="n" s="10">
-        <v>110.28</v>
+        <v>110.33</v>
       </c>
       <c r="DI84" t="n" s="10">
-        <v>112.66</v>
+        <v>112.67</v>
       </c>
       <c r="DJ84" t="n" s="10">
-        <v>115.35</v>
+        <v>115.26</v>
       </c>
       <c r="DK84" t="n" s="10">
-        <v>115.67</v>
+        <v>115.51</v>
       </c>
       <c r="DL84" t="n" s="10">
-        <v>117.88</v>
+        <v>118.47</v>
       </c>
       <c r="DM84" t="n" s="10">
-        <v>118.13</v>
+        <v>117.85</v>
       </c>
       <c r="DN84" t="n" s="10">
-        <v>115.2</v>
+        <v>114.87</v>
       </c>
       <c r="DO84" t="n" s="10">
-        <v>111.86</v>
+        <v>111.39</v>
       </c>
       <c r="DP84" t="n" s="10">
-        <v>92.26</v>
+        <v>93.77</v>
       </c>
       <c r="DQ84" t="n" s="10">
-        <v>99.08</v>
+        <v>98.32</v>
       </c>
       <c r="DR84" t="n" s="10">
-        <v>96.67</v>
+        <v>96.19</v>
       </c>
       <c r="DS84" t="n" s="10">
-        <v>96.48</v>
+        <v>95.91</v>
       </c>
       <c r="DT84" t="n" s="10">
-        <v>97.12</v>
-      </c>
-      <c r="DU84" t="s" s="10">
-        <v>44</v>
+        <v>100.02</v>
+      </c>
+      <c r="DU84" t="n" s="10">
+        <v>105.94</v>
       </c>
       <c r="DV84" t="s" s="10">
         <v>44</v>
@@ -28607,7 +28607,7 @@
         <v>43</v>
       </c>
       <c r="C85" t="n" s="10">
-        <v>33.92</v>
+        <v>33.93</v>
       </c>
       <c r="D85" t="n" s="10">
         <v>34.07</v>
@@ -28616,7 +28616,7 @@
         <v>34.21</v>
       </c>
       <c r="F85" t="n" s="10">
-        <v>34.03</v>
+        <v>34.04</v>
       </c>
       <c r="G85" t="n" s="10">
         <v>35.41</v>
@@ -28625,7 +28625,7 @@
         <v>34.88</v>
       </c>
       <c r="I85" t="n" s="10">
-        <v>34.38</v>
+        <v>34.37</v>
       </c>
       <c r="J85" t="n" s="10">
         <v>34.51</v>
@@ -28661,7 +28661,7 @@
         <v>37.63</v>
       </c>
       <c r="U85" t="n" s="10">
-        <v>38.12</v>
+        <v>38.13</v>
       </c>
       <c r="V85" t="n" s="10">
         <v>38.37</v>
@@ -28673,16 +28673,16 @@
         <v>38.9</v>
       </c>
       <c r="Y85" t="n" s="10">
-        <v>39.28</v>
+        <v>39.29</v>
       </c>
       <c r="Z85" t="n" s="10">
-        <v>40.45</v>
+        <v>40.46</v>
       </c>
       <c r="AA85" t="n" s="10">
-        <v>41.67</v>
+        <v>41.68</v>
       </c>
       <c r="AB85" t="n" s="10">
-        <v>42.1</v>
+        <v>42.09</v>
       </c>
       <c r="AC85" t="n" s="10">
         <v>43.58</v>
@@ -28709,7 +28709,7 @@
         <v>50.24</v>
       </c>
       <c r="AK85" t="n" s="10">
-        <v>51.56</v>
+        <v>51.55</v>
       </c>
       <c r="AL85" t="n" s="10">
         <v>51.64</v>
@@ -28724,7 +28724,7 @@
         <v>57.06</v>
       </c>
       <c r="AP85" t="n" s="10">
-        <v>59.57</v>
+        <v>59.58</v>
       </c>
       <c r="AQ85" t="n" s="10">
         <v>58.48</v>
@@ -28754,67 +28754,67 @@
         <v>58.21</v>
       </c>
       <c r="AZ85" t="n" s="10">
-        <v>58.04</v>
+        <v>58.05</v>
       </c>
       <c r="BA85" t="n" s="10">
         <v>58.58</v>
       </c>
       <c r="BB85" t="n" s="10">
-        <v>60.11</v>
+        <v>60.12</v>
       </c>
       <c r="BC85" t="n" s="10">
         <v>61.41</v>
       </c>
       <c r="BD85" t="n" s="10">
-        <v>62.52</v>
+        <v>62.55</v>
       </c>
       <c r="BE85" t="n" s="10">
-        <v>63.69</v>
+        <v>63.6</v>
       </c>
       <c r="BF85" t="n" s="10">
-        <v>63.54</v>
+        <v>63.56</v>
       </c>
       <c r="BG85" t="n" s="10">
-        <v>63.58</v>
+        <v>63.62</v>
       </c>
       <c r="BH85" t="n" s="10">
-        <v>65.92</v>
+        <v>65.98</v>
       </c>
       <c r="BI85" t="n" s="10">
-        <v>67.74</v>
+        <v>67.59</v>
       </c>
       <c r="BJ85" t="n" s="10">
-        <v>70.16</v>
+        <v>70.22</v>
       </c>
       <c r="BK85" t="n" s="10">
-        <v>72.45</v>
+        <v>72.49</v>
       </c>
       <c r="BL85" t="n" s="10">
-        <v>73.72</v>
+        <v>73.75</v>
       </c>
       <c r="BM85" t="n" s="10">
-        <v>74.94</v>
+        <v>74.87</v>
       </c>
       <c r="BN85" t="n" s="10">
-        <v>77.17</v>
+        <v>77.2</v>
       </c>
       <c r="BO85" t="n" s="10">
-        <v>78.1</v>
+        <v>78.11</v>
       </c>
       <c r="BP85" t="n" s="10">
         <v>79.09</v>
       </c>
       <c r="BQ85" t="n" s="10">
-        <v>79.75</v>
+        <v>79.74</v>
       </c>
       <c r="BR85" t="n" s="10">
-        <v>79.82</v>
+        <v>79.83</v>
       </c>
       <c r="BS85" t="n" s="10">
-        <v>81.47</v>
+        <v>81.48</v>
       </c>
       <c r="BT85" t="n" s="10">
-        <v>81.68</v>
+        <v>81.67</v>
       </c>
       <c r="BU85" t="n" s="10">
         <v>81.02</v>
@@ -28826,7 +28826,7 @@
         <v>74.86</v>
       </c>
       <c r="BX85" t="n" s="10">
-        <v>71.44</v>
+        <v>71.45</v>
       </c>
       <c r="BY85" t="n" s="10">
         <v>72.63</v>
@@ -28844,10 +28844,10 @@
         <v>83.17</v>
       </c>
       <c r="CD85" t="n" s="10">
-        <v>85.48</v>
+        <v>85.47</v>
       </c>
       <c r="CE85" t="n" s="10">
-        <v>87.02</v>
+        <v>87.01</v>
       </c>
       <c r="CF85" t="n" s="10">
         <v>87.98</v>
@@ -28859,7 +28859,7 @@
         <v>89.21</v>
       </c>
       <c r="CI85" t="n" s="10">
-        <v>88.93</v>
+        <v>88.92</v>
       </c>
       <c r="CJ85" t="n" s="10">
         <v>88.35</v>
@@ -28868,7 +28868,7 @@
         <v>88.46</v>
       </c>
       <c r="CL85" t="n" s="10">
-        <v>88.63</v>
+        <v>88.64</v>
       </c>
       <c r="CM85" t="n" s="10">
         <v>89.45</v>
@@ -28910,10 +28910,10 @@
         <v>102.77</v>
       </c>
       <c r="CZ85" t="n" s="10">
-        <v>103.44</v>
+        <v>103.43</v>
       </c>
       <c r="DA85" t="n" s="10">
-        <v>104.49</v>
+        <v>104.48</v>
       </c>
       <c r="DB85" t="n" s="10">
         <v>106.46</v>
@@ -28925,55 +28925,55 @@
         <v>109.93</v>
       </c>
       <c r="DE85" t="n" s="10">
-        <v>110.64</v>
+        <v>110.63</v>
       </c>
       <c r="DF85" t="n" s="10">
-        <v>112.03</v>
+        <v>112.01</v>
       </c>
       <c r="DG85" t="n" s="10">
-        <v>112.17</v>
+        <v>112.25</v>
       </c>
       <c r="DH85" t="n" s="10">
-        <v>113.85</v>
+        <v>113.79</v>
       </c>
       <c r="DI85" t="n" s="10">
-        <v>115.68</v>
+        <v>115.64</v>
       </c>
       <c r="DJ85" t="n" s="10">
-        <v>115.97</v>
+        <v>115.98</v>
       </c>
       <c r="DK85" t="n" s="10">
-        <v>116.54</v>
+        <v>116.82</v>
       </c>
       <c r="DL85" t="n" s="10">
-        <v>118.0</v>
+        <v>117.43</v>
       </c>
       <c r="DM85" t="n" s="10">
-        <v>118.88</v>
+        <v>119.13</v>
       </c>
       <c r="DN85" t="n" s="10">
-        <v>117.73</v>
+        <v>117.94</v>
       </c>
       <c r="DO85" t="n" s="10">
-        <v>114.62</v>
+        <v>114.81</v>
       </c>
       <c r="DP85" t="n" s="10">
-        <v>97.88</v>
+        <v>96.46</v>
       </c>
       <c r="DQ85" t="n" s="10">
-        <v>107.54</v>
+        <v>108.69</v>
       </c>
       <c r="DR85" t="n" s="10">
-        <v>109.19</v>
+        <v>109.54</v>
       </c>
       <c r="DS85" t="n" s="10">
-        <v>111.72</v>
+        <v>111.5</v>
       </c>
       <c r="DT85" t="n" s="10">
-        <v>116.27</v>
-      </c>
-      <c r="DU85" t="s" s="10">
-        <v>44</v>
+        <v>114.76</v>
+      </c>
+      <c r="DU85" t="n" s="10">
+        <v>119.03</v>
       </c>
       <c r="DV85" t="s" s="10">
         <v>44</v>
@@ -28987,7 +28987,7 @@
         <v>43</v>
       </c>
       <c r="C86" t="n" s="10">
-        <v>33.03</v>
+        <v>33.04</v>
       </c>
       <c r="D86" t="n" s="10">
         <v>33.21</v>
@@ -28996,7 +28996,7 @@
         <v>33.24</v>
       </c>
       <c r="F86" t="n" s="10">
-        <v>32.92</v>
+        <v>32.93</v>
       </c>
       <c r="G86" t="n" s="10">
         <v>34.22</v>
@@ -29005,7 +29005,7 @@
         <v>33.6</v>
       </c>
       <c r="I86" t="n" s="10">
-        <v>32.95</v>
+        <v>32.94</v>
       </c>
       <c r="J86" t="n" s="10">
         <v>32.89</v>
@@ -29041,7 +29041,7 @@
         <v>35.46</v>
       </c>
       <c r="U86" t="n" s="10">
-        <v>35.91</v>
+        <v>35.92</v>
       </c>
       <c r="V86" t="n" s="10">
         <v>36.06</v>
@@ -29053,16 +29053,16 @@
         <v>36.54</v>
       </c>
       <c r="Y86" t="n" s="10">
-        <v>36.77</v>
+        <v>36.78</v>
       </c>
       <c r="Z86" t="n" s="10">
-        <v>37.94</v>
+        <v>37.95</v>
       </c>
       <c r="AA86" t="n" s="10">
-        <v>39.08</v>
+        <v>39.09</v>
       </c>
       <c r="AB86" t="n" s="10">
-        <v>39.38</v>
+        <v>39.37</v>
       </c>
       <c r="AC86" t="n" s="10">
         <v>41.19</v>
@@ -29089,7 +29089,7 @@
         <v>47.87</v>
       </c>
       <c r="AK86" t="n" s="10">
-        <v>49.21</v>
+        <v>49.2</v>
       </c>
       <c r="AL86" t="n" s="10">
         <v>48.7</v>
@@ -29104,7 +29104,7 @@
         <v>54.54</v>
       </c>
       <c r="AP86" t="n" s="10">
-        <v>57.19</v>
+        <v>57.2</v>
       </c>
       <c r="AQ86" t="n" s="10">
         <v>55.59</v>
@@ -29134,67 +29134,67 @@
         <v>56.27</v>
       </c>
       <c r="AZ86" t="n" s="10">
-        <v>56.2</v>
+        <v>56.21</v>
       </c>
       <c r="BA86" t="n" s="10">
         <v>56.42</v>
       </c>
       <c r="BB86" t="n" s="10">
-        <v>58.42</v>
+        <v>58.43</v>
       </c>
       <c r="BC86" t="n" s="10">
-        <v>59.53</v>
+        <v>59.54</v>
       </c>
       <c r="BD86" t="n" s="10">
-        <v>60.52</v>
+        <v>60.55</v>
       </c>
       <c r="BE86" t="n" s="10">
-        <v>62.22</v>
+        <v>62.11</v>
       </c>
       <c r="BF86" t="n" s="10">
-        <v>61.94</v>
+        <v>61.97</v>
       </c>
       <c r="BG86" t="n" s="10">
-        <v>61.91</v>
+        <v>61.96</v>
       </c>
       <c r="BH86" t="n" s="10">
-        <v>64.45</v>
+        <v>64.52</v>
       </c>
       <c r="BI86" t="n" s="10">
-        <v>66.31</v>
+        <v>66.12</v>
       </c>
       <c r="BJ86" t="n" s="10">
-        <v>69.16</v>
+        <v>69.23</v>
       </c>
       <c r="BK86" t="n" s="10">
-        <v>71.79</v>
+        <v>71.84</v>
       </c>
       <c r="BL86" t="n" s="10">
-        <v>73.45</v>
+        <v>73.49</v>
       </c>
       <c r="BM86" t="n" s="10">
-        <v>74.89</v>
+        <v>74.79</v>
       </c>
       <c r="BN86" t="n" s="10">
-        <v>77.08</v>
+        <v>77.12</v>
       </c>
       <c r="BO86" t="n" s="10">
-        <v>78.19</v>
+        <v>78.21</v>
       </c>
       <c r="BP86" t="n" s="10">
         <v>79.32</v>
       </c>
       <c r="BQ86" t="n" s="10">
-        <v>79.71</v>
+        <v>79.7</v>
       </c>
       <c r="BR86" t="n" s="10">
-        <v>80.0</v>
+        <v>80.01</v>
       </c>
       <c r="BS86" t="n" s="10">
-        <v>81.7</v>
+        <v>81.71</v>
       </c>
       <c r="BT86" t="n" s="10">
-        <v>81.84</v>
+        <v>81.83</v>
       </c>
       <c r="BU86" t="n" s="10">
         <v>81.38</v>
@@ -29221,13 +29221,13 @@
         <v>82.92</v>
       </c>
       <c r="CC86" t="n" s="10">
-        <v>83.65</v>
+        <v>83.64</v>
       </c>
       <c r="CD86" t="n" s="10">
-        <v>86.15</v>
+        <v>86.14</v>
       </c>
       <c r="CE86" t="n" s="10">
-        <v>88.15</v>
+        <v>88.14</v>
       </c>
       <c r="CF86" t="n" s="10">
         <v>89.21</v>
@@ -29239,7 +29239,7 @@
         <v>89.86</v>
       </c>
       <c r="CI86" t="n" s="10">
-        <v>89.1</v>
+        <v>89.09</v>
       </c>
       <c r="CJ86" t="n" s="10">
         <v>88.25</v>
@@ -29314,46 +29314,46 @@
         <v>112.57</v>
       </c>
       <c r="DH86" t="n" s="10">
-        <v>114.52</v>
+        <v>114.48</v>
       </c>
       <c r="DI86" t="n" s="10">
         <v>115.89</v>
       </c>
       <c r="DJ86" t="n" s="10">
-        <v>116.07</v>
+        <v>116.14</v>
       </c>
       <c r="DK86" t="n" s="10">
-        <v>117.56</v>
+        <v>117.71</v>
       </c>
       <c r="DL86" t="n" s="10">
-        <v>117.58</v>
+        <v>117.03</v>
       </c>
       <c r="DM86" t="n" s="10">
-        <v>118.29</v>
+        <v>118.61</v>
       </c>
       <c r="DN86" t="n" s="10">
-        <v>117.16</v>
+        <v>117.35</v>
       </c>
       <c r="DO86" t="n" s="10">
-        <v>115.57</v>
+        <v>115.76</v>
       </c>
       <c r="DP86" t="n" s="10">
-        <v>102.27</v>
+        <v>100.79</v>
       </c>
       <c r="DQ86" t="n" s="10">
-        <v>112.43</v>
+        <v>113.72</v>
       </c>
       <c r="DR86" t="n" s="10">
-        <v>116.4</v>
+        <v>116.65</v>
       </c>
       <c r="DS86" t="n" s="10">
-        <v>118.7</v>
+        <v>118.56</v>
       </c>
       <c r="DT86" t="n" s="10">
-        <v>123.36</v>
-      </c>
-      <c r="DU86" t="s" s="10">
-        <v>44</v>
+        <v>121.46</v>
+      </c>
+      <c r="DU86" t="n" s="10">
+        <v>120.77</v>
       </c>
       <c r="DV86" t="s" s="10">
         <v>44</v>
@@ -29367,7 +29367,7 @@
         <v>43</v>
       </c>
       <c r="C87" t="n" s="10">
-        <v>36.66</v>
+        <v>36.67</v>
       </c>
       <c r="D87" t="n" s="10">
         <v>36.66</v>
@@ -29376,7 +29376,7 @@
         <v>37.29</v>
       </c>
       <c r="F87" t="n" s="10">
-        <v>37.73</v>
+        <v>37.74</v>
       </c>
       <c r="G87" t="n" s="10">
         <v>39.44</v>
@@ -29397,7 +29397,7 @@
         <v>40.57</v>
       </c>
       <c r="M87" t="n" s="10">
-        <v>40.75</v>
+        <v>40.74</v>
       </c>
       <c r="N87" t="n" s="10">
         <v>41.32</v>
@@ -29406,13 +29406,13 @@
         <v>42.19</v>
       </c>
       <c r="P87" t="n" s="10">
-        <v>43.3</v>
+        <v>43.29</v>
       </c>
       <c r="Q87" t="n" s="10">
         <v>44.26</v>
       </c>
       <c r="R87" t="n" s="10">
-        <v>44.07</v>
+        <v>44.08</v>
       </c>
       <c r="S87" t="n" s="10">
         <v>45.96</v>
@@ -29424,10 +29424,10 @@
         <v>46.5</v>
       </c>
       <c r="V87" t="n" s="10">
-        <v>47.12</v>
+        <v>47.13</v>
       </c>
       <c r="W87" t="n" s="10">
-        <v>46.9</v>
+        <v>46.89</v>
       </c>
       <c r="X87" t="n" s="10">
         <v>47.88</v>
@@ -29439,46 +29439,46 @@
         <v>50.0</v>
       </c>
       <c r="AA87" t="n" s="10">
-        <v>51.54</v>
+        <v>51.55</v>
       </c>
       <c r="AB87" t="n" s="10">
-        <v>52.51</v>
+        <v>52.5</v>
       </c>
       <c r="AC87" t="n" s="10">
         <v>52.57</v>
       </c>
       <c r="AD87" t="n" s="10">
-        <v>53.29</v>
+        <v>53.3</v>
       </c>
       <c r="AE87" t="n" s="10">
         <v>53.58</v>
       </c>
       <c r="AF87" t="n" s="10">
-        <v>54.15</v>
+        <v>54.16</v>
       </c>
       <c r="AG87" t="n" s="10">
         <v>55.53</v>
       </c>
       <c r="AH87" t="n" s="10">
-        <v>55.24</v>
+        <v>55.23</v>
       </c>
       <c r="AI87" t="n" s="10">
         <v>56.74</v>
       </c>
       <c r="AJ87" t="n" s="10">
-        <v>59.01</v>
+        <v>59.0</v>
       </c>
       <c r="AK87" t="n" s="10">
         <v>60.21</v>
       </c>
       <c r="AL87" t="n" s="10">
-        <v>62.65</v>
+        <v>62.64</v>
       </c>
       <c r="AM87" t="n" s="10">
-        <v>63.23</v>
+        <v>63.22</v>
       </c>
       <c r="AN87" t="n" s="10">
-        <v>64.81</v>
+        <v>64.82</v>
       </c>
       <c r="AO87" t="n" s="10">
         <v>66.38</v>
@@ -29487,7 +29487,7 @@
         <v>68.34</v>
       </c>
       <c r="AQ87" t="n" s="10">
-        <v>69.25</v>
+        <v>69.24</v>
       </c>
       <c r="AR87" t="n" s="10">
         <v>68.63</v>
@@ -29496,10 +29496,10 @@
         <v>68.3</v>
       </c>
       <c r="AT87" t="n" s="10">
-        <v>67.3</v>
+        <v>67.31</v>
       </c>
       <c r="AU87" t="n" s="10">
-        <v>66.3</v>
+        <v>66.31</v>
       </c>
       <c r="AV87" t="n" s="10">
         <v>66.0</v>
@@ -29508,13 +29508,13 @@
         <v>64.99</v>
       </c>
       <c r="AX87" t="n" s="10">
-        <v>65.22</v>
+        <v>65.23</v>
       </c>
       <c r="AY87" t="n" s="10">
-        <v>65.37</v>
+        <v>65.38</v>
       </c>
       <c r="AZ87" t="n" s="10">
-        <v>64.81</v>
+        <v>64.82</v>
       </c>
       <c r="BA87" t="n" s="10">
         <v>66.59</v>
@@ -29532,13 +29532,13 @@
         <v>69.08</v>
       </c>
       <c r="BF87" t="n" s="10">
-        <v>69.42</v>
+        <v>69.41</v>
       </c>
       <c r="BG87" t="n" s="10">
-        <v>69.7</v>
+        <v>69.71</v>
       </c>
       <c r="BH87" t="n" s="10">
-        <v>71.31</v>
+        <v>71.3</v>
       </c>
       <c r="BI87" t="n" s="10">
         <v>72.93</v>
@@ -29547,13 +29547,13 @@
         <v>73.74</v>
       </c>
       <c r="BK87" t="n" s="10">
-        <v>74.74</v>
+        <v>74.73</v>
       </c>
       <c r="BL87" t="n" s="10">
         <v>74.51</v>
       </c>
       <c r="BM87" t="n" s="10">
-        <v>74.92</v>
+        <v>74.93</v>
       </c>
       <c r="BN87" t="n" s="10">
         <v>77.26</v>
@@ -29562,55 +29562,55 @@
         <v>77.48</v>
       </c>
       <c r="BP87" t="n" s="10">
-        <v>77.93</v>
+        <v>77.94</v>
       </c>
       <c r="BQ87" t="n" s="10">
         <v>79.64</v>
       </c>
       <c r="BR87" t="n" s="10">
-        <v>78.86</v>
+        <v>78.87</v>
       </c>
       <c r="BS87" t="n" s="10">
-        <v>80.3</v>
+        <v>80.31</v>
       </c>
       <c r="BT87" t="n" s="10">
-        <v>80.77</v>
+        <v>80.76</v>
       </c>
       <c r="BU87" t="n" s="10">
         <v>79.36</v>
       </c>
       <c r="BV87" t="n" s="10">
-        <v>78.11</v>
+        <v>78.12</v>
       </c>
       <c r="BW87" t="n" s="10">
         <v>74.49</v>
       </c>
       <c r="BX87" t="n" s="10">
-        <v>72.59</v>
+        <v>72.6</v>
       </c>
       <c r="BY87" t="n" s="10">
         <v>72.86</v>
       </c>
       <c r="BZ87" t="n" s="10">
-        <v>73.68</v>
+        <v>73.67</v>
       </c>
       <c r="CA87" t="n" s="10">
         <v>77.36</v>
       </c>
       <c r="CB87" t="n" s="10">
-        <v>80.89</v>
+        <v>80.88</v>
       </c>
       <c r="CC87" t="n" s="10">
         <v>81.27</v>
       </c>
       <c r="CD87" t="n" s="10">
-        <v>82.89</v>
+        <v>82.88</v>
       </c>
       <c r="CE87" t="n" s="10">
-        <v>82.75</v>
+        <v>82.74</v>
       </c>
       <c r="CF87" t="n" s="10">
-        <v>83.32</v>
+        <v>83.31</v>
       </c>
       <c r="CG87" t="n" s="10">
         <v>84.9</v>
@@ -29619,16 +29619,16 @@
         <v>86.66</v>
       </c>
       <c r="CI87" t="n" s="10">
-        <v>88.23</v>
+        <v>88.22</v>
       </c>
       <c r="CJ87" t="n" s="10">
-        <v>88.66</v>
+        <v>88.67</v>
       </c>
       <c r="CK87" t="n" s="10">
         <v>90.51</v>
       </c>
       <c r="CL87" t="n" s="10">
-        <v>89.79</v>
+        <v>89.8</v>
       </c>
       <c r="CM87" t="n" s="10">
         <v>92.25</v>
@@ -29640,7 +29640,7 @@
         <v>92.65</v>
       </c>
       <c r="CP87" t="n" s="10">
-        <v>92.67</v>
+        <v>92.68</v>
       </c>
       <c r="CQ87" t="n" s="10">
         <v>92.14</v>
@@ -29649,7 +29649,7 @@
         <v>93.28</v>
       </c>
       <c r="CS87" t="n" s="10">
-        <v>95.59</v>
+        <v>95.6</v>
       </c>
       <c r="CT87" t="n" s="10">
         <v>96.15</v>
@@ -29658,7 +29658,7 @@
         <v>97.03</v>
       </c>
       <c r="CV87" t="n" s="10">
-        <v>98.56</v>
+        <v>98.57</v>
       </c>
       <c r="CW87" t="n" s="10">
         <v>100.46</v>
@@ -29670,70 +29670,70 @@
         <v>104.03</v>
       </c>
       <c r="CZ87" t="n" s="10">
-        <v>104.3</v>
+        <v>104.29</v>
       </c>
       <c r="DA87" t="n" s="10">
-        <v>105.32</v>
+        <v>105.31</v>
       </c>
       <c r="DB87" t="n" s="10">
         <v>106.86</v>
       </c>
       <c r="DC87" t="n" s="10">
-        <v>109.38</v>
+        <v>109.4</v>
       </c>
       <c r="DD87" t="n" s="10">
         <v>112.98</v>
       </c>
       <c r="DE87" t="n" s="10">
-        <v>112.1</v>
+        <v>112.05</v>
       </c>
       <c r="DF87" t="n" s="10">
-        <v>112.28</v>
+        <v>112.18</v>
       </c>
       <c r="DG87" t="n" s="10">
-        <v>110.85</v>
+        <v>111.19</v>
       </c>
       <c r="DH87" t="n" s="10">
-        <v>111.62</v>
+        <v>111.48</v>
       </c>
       <c r="DI87" t="n" s="10">
-        <v>114.97</v>
+        <v>114.81</v>
       </c>
       <c r="DJ87" t="n" s="10">
-        <v>115.63</v>
+        <v>115.47</v>
       </c>
       <c r="DK87" t="n" s="10">
-        <v>113.16</v>
+        <v>113.86</v>
       </c>
       <c r="DL87" t="n" s="10">
-        <v>119.42</v>
+        <v>118.75</v>
       </c>
       <c r="DM87" t="n" s="10">
-        <v>120.86</v>
+        <v>120.87</v>
       </c>
       <c r="DN87" t="n" s="10">
-        <v>119.64</v>
+        <v>119.91</v>
       </c>
       <c r="DO87" t="n" s="10">
-        <v>111.52</v>
+        <v>111.72</v>
       </c>
       <c r="DP87" t="n" s="10">
-        <v>83.55</v>
+        <v>82.29</v>
       </c>
       <c r="DQ87" t="n" s="10">
-        <v>91.55</v>
+        <v>92.24</v>
       </c>
       <c r="DR87" t="n" s="10">
-        <v>85.64</v>
+        <v>86.31</v>
       </c>
       <c r="DS87" t="n" s="10">
-        <v>89.33</v>
+        <v>88.85</v>
       </c>
       <c r="DT87" t="n" s="10">
-        <v>93.51</v>
-      </c>
-      <c r="DU87" t="s" s="10">
-        <v>44</v>
+        <v>93.21</v>
+      </c>
+      <c r="DU87" t="n" s="10">
+        <v>112.84</v>
       </c>
       <c r="DV87" t="s" s="10">
         <v>44</v>
@@ -30113,7 +30113,7 @@
         <v>52</v>
       </c>
       <c r="DU88" t="s" s="10">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="DV88" t="s" s="10">
         <v>44</v>
@@ -30498,7 +30498,7 @@
         <v>52</v>
       </c>
       <c r="DU90" t="s" s="10">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="DV90" t="s" s="10">
         <v>44</v>
@@ -30878,7 +30878,7 @@
         <v>52</v>
       </c>
       <c r="DU91" t="s" s="10">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="DV91" t="s" s="10">
         <v>44</v>
@@ -31258,7 +31258,7 @@
         <v>52</v>
       </c>
       <c r="DU92" t="s" s="10">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="DV92" t="s" s="10">
         <v>44</v>
@@ -31638,7 +31638,7 @@
         <v>52</v>
       </c>
       <c r="DU93" t="s" s="10">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="DV93" t="s" s="10">
         <v>44</v>
@@ -32018,7 +32018,7 @@
         <v>52</v>
       </c>
       <c r="DU94" t="s" s="10">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="DV94" t="s" s="10">
         <v>44</v>
@@ -32398,7 +32398,7 @@
         <v>52</v>
       </c>
       <c r="DU95" t="s" s="10">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="DV95" t="s" s="10">
         <v>44</v>
@@ -32778,7 +32778,7 @@
         <v>52</v>
       </c>
       <c r="DU96" t="s" s="10">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="DV96" t="s" s="10">
         <v>44</v>
@@ -33163,7 +33163,7 @@
         <v>52</v>
       </c>
       <c r="DU98" t="s" s="10">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="DV98" t="s" s="10">
         <v>44</v>
@@ -33543,7 +33543,7 @@
         <v>52</v>
       </c>
       <c r="DU99" t="s" s="10">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="DV99" t="s" s="10">
         <v>44</v>
@@ -33923,7 +33923,7 @@
         <v>52</v>
       </c>
       <c r="DU100" t="s" s="10">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="DV100" t="s" s="10">
         <v>44</v>
@@ -34303,7 +34303,7 @@
         <v>52</v>
       </c>
       <c r="DU101" t="s" s="10">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="DV101" t="s" s="10">
         <v>44</v>
@@ -34683,7 +34683,7 @@
         <v>52</v>
       </c>
       <c r="DU102" t="s" s="10">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="DV102" t="s" s="10">
         <v>44</v>
@@ -35063,7 +35063,7 @@
         <v>52</v>
       </c>
       <c r="DU103" t="s" s="10">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="DV103" t="s" s="10">
         <v>44</v>
@@ -35443,7 +35443,7 @@
         <v>52</v>
       </c>
       <c r="DU104" t="s" s="10">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="DV104" t="s" s="10">
         <v>44</v>
@@ -35535,7 +35535,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 07.10.21 / 09:48:37&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.12.21 / 09:51:50&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>